--- a/outputs_HGR/test-p__Actinobacteria.xlsx
+++ b/outputs_HGR/test-p__Actinobacteria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="539">
   <si>
     <t>Row</t>
   </si>
@@ -25,6 +25,12 @@
     <t>even_MAG-GUT1001.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT10094.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT10102.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1012.fa</t>
   </si>
   <si>
@@ -34,15 +40,21 @@
     <t>even_MAG-GUT1026.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT103.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT1033.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT10376.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT10488.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT10512.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT10537.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1054.fa</t>
   </si>
   <si>
@@ -55,9 +67,15 @@
     <t>even_MAG-GUT1089.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT10909.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT10928.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT11071.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1122.fa</t>
   </si>
   <si>
@@ -79,6 +97,9 @@
     <t>even_MAG-GUT1143.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT11449.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1148.fa</t>
   </si>
   <si>
@@ -91,10 +112,16 @@
     <t>even_MAG-GUT1157.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT11752.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT11820.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT11934.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT12030.fa</t>
+    <t>even_MAG-GUT12186.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT12393.fa</t>
@@ -112,22 +139,25 @@
     <t>even_MAG-GUT1265.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT12655.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT12691.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT1274.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT12797.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT1282.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT1287.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT13333.fa</t>
+    <t>even_MAG-GUT13646.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT13851.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT1389.fa</t>
@@ -136,12 +166,18 @@
     <t>even_MAG-GUT14027.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT14116.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1453.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT1485.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT15034.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT151.fa</t>
   </si>
   <si>
@@ -154,12 +190,30 @@
     <t>even_MAG-GUT1537.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT15486.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15544.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15605.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15625.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT15850.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT15909.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT16117.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16720.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT16851.fa</t>
   </si>
   <si>
@@ -169,12 +223,24 @@
     <t>even_MAG-GUT17705.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT17793.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT1806.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18125.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1826.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT18429.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT18577.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1870.fa</t>
   </si>
   <si>
@@ -193,6 +259,18 @@
     <t>even_MAG-GUT1912.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT19188.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT19215.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT19220.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT19738.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1975.fa</t>
   </si>
   <si>
@@ -205,6 +283,9 @@
     <t>even_MAG-GUT2058.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT20624.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT2078.fa</t>
   </si>
   <si>
@@ -214,33 +295,51 @@
     <t>even_MAG-GUT21962.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT22502.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT22751.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT23346.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT23420.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT23723.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT23753.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT23860.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT23967.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT24184.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT25519.fa</t>
+    <t>even_MAG-GUT24822.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25605.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT25763.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT25808.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT25961.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT26059.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT26205.fa</t>
   </si>
   <si>
@@ -253,9 +352,15 @@
     <t>even_MAG-GUT26459.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT26501.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT26531.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT2655.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT26562.fa</t>
   </si>
   <si>
@@ -265,12 +370,39 @@
     <t>even_MAG-GUT2660.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT27127.fa</t>
+    <t>even_MAG-GUT26757.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT27132.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT27144.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT27283.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT27426.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT27436.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT2783.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT28050.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT28099.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT28110.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT28130.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT28721.fa</t>
   </si>
   <si>
@@ -280,18 +412,36 @@
     <t>even_MAG-GUT29414.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT29483.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT29494.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT2965.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT29784.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT30102.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT31343.fa</t>
+    <t>even_MAG-GUT30604.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT3110.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT31502.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT32169.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT32170.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT32351.fa</t>
   </si>
   <si>
@@ -316,40 +466,61 @@
     <t>even_MAG-GUT33244.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT33270.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT33324.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT33415.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT33557.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT33569.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT33658.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT33906.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT33983.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34183.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34569.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34592.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT34594.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT34689.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34724.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT34892.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT35087.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT35198.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT35206.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT35271.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT3531.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT35597.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT35747.fa</t>
+    <t>even_MAG-GUT35934.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT36138.fa</t>
@@ -358,52 +529,76 @@
     <t>even_MAG-GUT36441.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT3651.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT36692.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT36814.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT3702.fa</t>
+    <t>even_MAG-GUT36962.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT37024.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT37077.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT37090.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT37154.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT37934.fa</t>
+    <t>even_MAG-GUT3745.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT37542.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT37626.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT37950.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT38263.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT38584.fa</t>
+    <t>even_MAG-GUT39078.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT39152.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT39373.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT40251.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT4044.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT40486.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT4062.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT40620.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT40638.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT408.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT409.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT41097.fa</t>
+    <t>even_MAG-GUT40941.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT41171.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT412.fa</t>
@@ -412,28 +607,49 @@
     <t>even_MAG-GUT4125.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT41616.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT418.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT420.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT42066.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT4207.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT421.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT42163.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT422.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT423.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT42317.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT42455.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT425.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT42852.fa</t>
+    <t>even_MAG-GUT42654.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT42829.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT42865.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT429.fa</t>
@@ -448,6 +664,9 @@
     <t>even_MAG-GUT432.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43254.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT433.fa</t>
   </si>
   <si>
@@ -514,6 +733,9 @@
     <t>even_MAG-GUT456.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT4564.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT457.fa</t>
   </si>
   <si>
@@ -523,24 +745,30 @@
     <t>even_MAG-GUT45829.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT45894.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT459.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT4602.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT46159.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT46175.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT46186.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT462.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT46247.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT463.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT4634.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT464.fa</t>
   </si>
   <si>
@@ -553,7 +781,7 @@
     <t>even_MAG-GUT465.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT4651.fa</t>
+    <t>even_MAG-GUT46630.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT467.fa</t>
@@ -580,15 +808,27 @@
     <t>even_MAG-GUT47330.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT47410.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT47464.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT47585.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT4760.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT47777.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT47959.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT47995.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT4832.fa</t>
   </si>
   <si>
@@ -613,9 +853,21 @@
     <t>even_MAG-GUT48805.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT48825.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT48852.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT48949.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48959.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48986.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT48995.fa</t>
   </si>
   <si>
@@ -640,22 +892,40 @@
     <t>even_MAG-GUT49261.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT49266.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT49394.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT49414.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT49423.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT49487.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT49507.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT49534.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT49537.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT49543.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT4979.fa</t>
+    <t>even_MAG-GUT49558.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49571.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT49604.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT50219.fa</t>
@@ -664,10 +934,37 @@
     <t>even_MAG-GUT50483.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT51557.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT51559.fa</t>
+    <t>even_MAG-GUT50492.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT5060.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT50714.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT50752.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT50760.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT51339.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT51353.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT51504.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT51949.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT5199.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT52094.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT52107.fa</t>
@@ -676,21 +973,39 @@
     <t>even_MAG-GUT52138.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT52236.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT52246.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT5249.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT53512.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT53548.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT5358.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT53689.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT5371.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT5376.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT54489.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT54544.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT54574.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT5486.fa</t>
   </si>
   <si>
@@ -706,27 +1021,57 @@
     <t>even_MAG-GUT55688.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT5576.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT55792.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT55993.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT56059.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT5634.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT56644.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT56762.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT56896.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT56948.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57018.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT57047.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT57094.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57173.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT5720.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT57392.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57423.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT57492.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT57682.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT57819.fa</t>
   </si>
   <si>
@@ -736,21 +1081,36 @@
     <t>even_MAG-GUT58156.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT5848.fa</t>
+    <t>even_MAG-GUT58432.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58689.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT58706.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT58768.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT5899.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT59114.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT5914.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT59205.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT59296.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT59412.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT59472.fa</t>
   </si>
   <si>
@@ -763,10 +1123,28 @@
     <t>even_MAG-GUT59569.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT5994.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT6013.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60838.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61036.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61101.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61546.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61666.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT61918.fa</t>
+    <t>even_MAG-GUT62011.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT62023.fa</t>
@@ -775,18 +1153,27 @@
     <t>even_MAG-GUT62293.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT62413.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT6244.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT6247.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT62485.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT6251.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT6256.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT62601.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT6261.fa</t>
   </si>
   <si>
@@ -805,36 +1192,15 @@
     <t>even_MAG-GUT6290.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT63164.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT63198.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT63214.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT63219.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT63286.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT63373.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT63496.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT63586.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT63602.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT6384.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT6445.fa</t>
   </si>
   <si>
@@ -844,15 +1210,15 @@
     <t>even_MAG-GUT6489.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT65341.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT65671.fa</t>
+    <t>even_MAG-GUT65836.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT66097.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT66889.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT66991.fa</t>
   </si>
   <si>
@@ -931,6 +1297,9 @@
     <t>even_MAG-GUT68697.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT68726.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT68785.fa</t>
   </si>
   <si>
@@ -964,10 +1333,25 @@
     <t>even_MAG-GUT69447.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT6955.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT6968.fa</t>
+    <t>even_MAG-GUT70404.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT71501.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT71989.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT72738.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT73018.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT73031.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT73497.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT74324.fa</t>
@@ -976,60 +1360,198 @@
     <t>even_MAG-GUT74347.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT76034.fa</t>
+    <t>even_MAG-GUT74537.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT76200.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT7772.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT77913.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT77982.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT78879.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT78910.fa</t>
+    <t>even_MAG-GUT78002.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT7808.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT78247.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT78280.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT78307.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT78377.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT78853.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT78914.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79048.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT79219.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT79248.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79275.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79289.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79304.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79312.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79322.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79351.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79485.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT79767.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80568.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT80819.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80925.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT8128.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81880.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT81959.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT82008.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT82014.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT82239.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT83117.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT83414.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT83542.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT83564.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT8399.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT84532.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT84692.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT84696.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT84961.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT85070.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT85133.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT8640.fa</t>
+    <t>even_MAG-GUT85763.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT86199.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT8633.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT86544.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT86606.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT86868.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT8687.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87091.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87486.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87573.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT8776.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT87828.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT87873.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT88052.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT88085.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88218.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88257.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT88444.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT88679.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88862.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT8940.fa</t>
   </si>
   <si>
@@ -1039,9 +1561,15 @@
     <t>even_MAG-GUT9016.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90367.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT90583.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT90634.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT91259.fa</t>
   </si>
   <si>
@@ -1069,6 +1597,9 @@
     <t>even_MAG-GUT91947.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT91964.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT92065.fa</t>
   </si>
   <si>
@@ -1088,6 +1619,9 @@
   </si>
   <si>
     <t>even_MAG-GUT988.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT9964.fa</t>
   </si>
   <si>
     <t>1-c__Actinobacteria</t>
@@ -1144,7 +1678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D358"/>
+  <dimension ref="A1:D536"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -1158,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>358</v>
+        <v>536</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>359</v>
+        <v>537</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>360</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2">
@@ -1200,13 +1734,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9997975354607096</v>
+        <v>0.022344232499490357</v>
       </c>
       <c r="C4">
-        <v>0.00020246453929035368</v>
+        <v>0.97765576750050964</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1214,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.9937739320957704e-06</v>
+        <v>0.00084192059517640416</v>
       </c>
       <c r="C5">
-        <v>0.9999930062260679</v>
+        <v>0.9991580794048236</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1228,10 +1762,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.9953877341436812</v>
+        <v>0.9997975354607096</v>
       </c>
       <c r="C6">
-        <v>0.0046122658563188205</v>
+        <v>0.00020246453929035368</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1242,13 +1776,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.99014353339687833</v>
+        <v>6.9937739320957704e-06</v>
       </c>
       <c r="C7">
-        <v>0.0098564666031216719</v>
+        <v>0.9999930062260679</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1256,10 +1790,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.99909379538348231</v>
+        <v>0.9953877341436812</v>
       </c>
       <c r="C8">
-        <v>0.00090620461651772324</v>
+        <v>0.0046122658563188205</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1270,10 +1804,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.9999982825710646</v>
+        <v>0.99909379538348231</v>
       </c>
       <c r="C9">
-        <v>1.7174289354347929e-06</v>
+        <v>0.00090620461651772324</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1284,10 +1818,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.99953049786480486</v>
+        <v>0.65426245575447539</v>
       </c>
       <c r="C10">
-        <v>0.00046950213519510842</v>
+        <v>0.34573754424552455</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1298,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.99955031693496799</v>
+        <v>0.9999982825710646</v>
       </c>
       <c r="C11">
-        <v>0.00044968306503198927</v>
+        <v>1.7174289354347929e-06</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1312,13 +1846,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.99944021294914132</v>
+        <v>0.0062456476213895717</v>
       </c>
       <c r="C12">
-        <v>0.00055978705085865264</v>
+        <v>0.99375435237861043</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1326,10 +1860,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.99978200638316472</v>
+        <v>0.94122018601233415</v>
       </c>
       <c r="C13">
-        <v>0.00021799361683529634</v>
+        <v>0.058779813987665797</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1340,13 +1874,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.00041089013477579872</v>
+        <v>0.99953049786480486</v>
       </c>
       <c r="C14">
-        <v>0.9995891098652242</v>
+        <v>0.00046950213519510842</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1354,10 +1888,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.99984077938517257</v>
+        <v>0.99955031693496799</v>
       </c>
       <c r="C15">
-        <v>0.00015922061482746131</v>
+        <v>0.00044968306503198927</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1368,10 +1902,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.99836190916623313</v>
+        <v>0.99944021294914132</v>
       </c>
       <c r="C16">
-        <v>0.0016380908337668718</v>
+        <v>0.00055978705085865264</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1382,10 +1916,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.99672606960123067</v>
+        <v>0.99978200638316472</v>
       </c>
       <c r="C17">
-        <v>0.0032739303987693734</v>
+        <v>0.00021799361683529634</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1396,13 +1930,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.99933494925842414</v>
+        <v>0.0018998963001730651</v>
       </c>
       <c r="C18">
-        <v>0.00066505074157591042</v>
+        <v>0.99810010369982693</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1410,13 +1944,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.99734321738552068</v>
+        <v>0.00041089013477579872</v>
       </c>
       <c r="C19">
-        <v>0.0026567826144793475</v>
+        <v>0.9995891098652242</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1424,10 +1958,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.99901433084998048</v>
+        <v>0.62913652610811832</v>
       </c>
       <c r="C20">
-        <v>0.00098566915001946798</v>
+        <v>0.37086347389188168</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1438,10 +1972,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.99857153061407922</v>
+        <v>0.99984077938517257</v>
       </c>
       <c r="C21">
-        <v>0.0014284693859207857</v>
+        <v>0.00015922061482746131</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1452,10 +1986,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.99877234681180582</v>
+        <v>0.99836190916623313</v>
       </c>
       <c r="C22">
-        <v>0.0012276531881941868</v>
+        <v>0.0016380908337668718</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1466,10 +2000,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.99972097932723147</v>
+        <v>0.99672606960123067</v>
       </c>
       <c r="C23">
-        <v>0.00027902067276854963</v>
+        <v>0.0032739303987693734</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1480,13 +2014,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.22045271864092408</v>
+        <v>0.99933494925842414</v>
       </c>
       <c r="C24">
-        <v>0.77954728135907603</v>
+        <v>0.00066505074157591042</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1494,10 +2028,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.99746703334304576</v>
+        <v>0.99734321738552068</v>
       </c>
       <c r="C25">
-        <v>0.0025329666569542321</v>
+        <v>0.0026567826144793475</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1508,10 +2042,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.99999661884787294</v>
+        <v>0.99901433084998048</v>
       </c>
       <c r="C26">
-        <v>3.3811521270485807e-06</v>
+        <v>0.00098566915001946798</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1522,10 +2056,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.92727689131985613</v>
+        <v>0.99857153061407922</v>
       </c>
       <c r="C27">
-        <v>0.072723108680143922</v>
+        <v>0.0014284693859207857</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1536,10 +2070,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5.4175837302716801e-05</v>
+        <v>0.0021055243507300814</v>
       </c>
       <c r="C28">
-        <v>0.99994582416269728</v>
+        <v>0.99789447564926992</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1550,10 +2084,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.99916995387323693</v>
+        <v>0.99877234681180582</v>
       </c>
       <c r="C29">
-        <v>0.00083004612676304708</v>
+        <v>0.0012276531881941868</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1564,13 +2098,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.0027232890514519159</v>
+        <v>0.99972097932723147</v>
       </c>
       <c r="C30">
-        <v>0.99727671094854808</v>
+        <v>0.00027902067276854963</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1578,13 +2112,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.99768155733062536</v>
+        <v>0.22045271864092408</v>
       </c>
       <c r="C31">
-        <v>0.0023184426693746334</v>
+        <v>0.77954728135907603</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1592,10 +2126,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.9991123950469909</v>
+        <v>0.99746703334304576</v>
       </c>
       <c r="C32">
-        <v>0.00088760495300913098</v>
+        <v>0.0025329666569542321</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1606,10 +2140,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.2711909395557441e-05</v>
+        <v>0.0025008483332688014</v>
       </c>
       <c r="C33">
-        <v>0.99998728809060444</v>
+        <v>0.9974991516667312</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1620,13 +2154,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.9997049020077674</v>
+        <v>0.070710035734886656</v>
       </c>
       <c r="C34">
-        <v>0.00029509799223258166</v>
+        <v>0.92928996426511334</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1634,10 +2168,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.99602959579575345</v>
+        <v>0.99999661884787294</v>
       </c>
       <c r="C35">
-        <v>0.0039704042042465089</v>
+        <v>3.3811521270485807e-06</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1648,13 +2182,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.99974734629796014</v>
+        <v>0.0010583966022467139</v>
       </c>
       <c r="C36">
-        <v>0.00025265370203985375</v>
+        <v>0.99894160339775329</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1662,13 +2196,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.99686244348863573</v>
+        <v>5.4175837302716801e-05</v>
       </c>
       <c r="C37">
-        <v>0.0031375565113643091</v>
+        <v>0.99994582416269728</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1676,13 +2210,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.0024346277154561058</v>
+        <v>0.99916995387323693</v>
       </c>
       <c r="C38">
-        <v>0.99756537228454389</v>
+        <v>0.00083004612676304708</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1690,10 +2224,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.00049315500760749309</v>
+        <v>0.0027232890514519159</v>
       </c>
       <c r="C39">
-        <v>0.99950684499239251</v>
+        <v>0.99727671094854808</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1704,13 +2238,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.096248685277633861</v>
+        <v>0.99768155733062536</v>
       </c>
       <c r="C40">
-        <v>0.90375131472236614</v>
+        <v>0.0023184426693746334</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1718,10 +2252,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.9990324686239811</v>
+        <v>0.9991123950469909</v>
       </c>
       <c r="C41">
-        <v>0.00096753137601894232</v>
+        <v>0.00088760495300913098</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1732,13 +2266,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.9989194098924844</v>
+        <v>0.011334795997064218</v>
       </c>
       <c r="C42">
-        <v>0.0010805901075156491</v>
+        <v>0.98866520400293578</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1746,10 +2280,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.006166954690585813</v>
+        <v>1.2711909395557441e-05</v>
       </c>
       <c r="C43">
-        <v>0.99383304530941419</v>
+        <v>0.99998728809060444</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1760,10 +2294,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.99980884900611089</v>
+        <v>0.9997049020077674</v>
       </c>
       <c r="C44">
-        <v>0.0001911509938890705</v>
+        <v>0.00029509799223258166</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1774,10 +2308,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.99874640277405269</v>
+        <v>0.99974734629796014</v>
       </c>
       <c r="C45">
-        <v>0.0012535972259473508</v>
+        <v>0.00025265370203985375</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1788,10 +2322,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.99968509310125586</v>
+        <v>0.99686244348863573</v>
       </c>
       <c r="C46">
-        <v>0.00031490689874412832</v>
+        <v>0.0031375565113643091</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1802,13 +2336,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2.5966192029214241e-05</v>
+        <v>0.64108293898774937</v>
       </c>
       <c r="C47">
-        <v>0.99997403380797079</v>
+        <v>0.35891706101225063</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1816,10 +2350,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.0043344989947736723</v>
+        <v>0.0006350824199110594</v>
       </c>
       <c r="C48">
-        <v>0.99566550100522633</v>
+        <v>0.99936491758008894</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -1830,10 +2364,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>8.2236147775915924e-06</v>
+        <v>0.00049315500760749309</v>
       </c>
       <c r="C49">
-        <v>0.99999177638522241</v>
+        <v>0.99950684499239251</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1844,10 +2378,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.0014553778609784906</v>
+        <v>0.096248685277633861</v>
       </c>
       <c r="C50">
-        <v>0.99854462213902151</v>
+        <v>0.90375131472236614</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -1858,13 +2392,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.010097615331383869</v>
+        <v>0.64102345497702073</v>
       </c>
       <c r="C51">
-        <v>0.98990238466861613</v>
+        <v>0.35897654502297921</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1872,10 +2406,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.99998815918641581</v>
+        <v>0.9990324686239811</v>
       </c>
       <c r="C52">
-        <v>1.1840813584207864e-05</v>
+        <v>0.00096753137601894232</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1886,13 +2420,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>4.7320340383794068e-05</v>
+        <v>0.9989194098924844</v>
       </c>
       <c r="C53">
-        <v>0.99995267965961621</v>
+        <v>0.0010805901075156491</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1900,10 +2434,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.9993462810210062</v>
+        <v>0.55590326685932467</v>
       </c>
       <c r="C54">
-        <v>0.00065371897899376156</v>
+        <v>0.44409673314067527</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1914,13 +2448,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.99849376638324394</v>
+        <v>0.006166954690585813</v>
       </c>
       <c r="C55">
-        <v>0.0015062336167560146</v>
+        <v>0.99383304530941419</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1928,10 +2462,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.99880631603220527</v>
+        <v>0.99980884900611089</v>
       </c>
       <c r="C56">
-        <v>0.0011936839677947602</v>
+        <v>0.0001911509938890705</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1942,10 +2476,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.99928542628894579</v>
+        <v>0.99874640277405269</v>
       </c>
       <c r="C57">
-        <v>0.00071457371105423169</v>
+        <v>0.0012535972259473508</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1956,10 +2490,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.99918510704755414</v>
+        <v>0.99968509310125586</v>
       </c>
       <c r="C58">
-        <v>0.00081489295244588692</v>
+        <v>0.00031490689874412832</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1970,13 +2504,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.99789620824428915</v>
+        <v>0.0017267759285519713</v>
       </c>
       <c r="C59">
-        <v>0.0021037917557108891</v>
+        <v>0.99827322407144803</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1984,13 +2518,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.00030296692975850803</v>
+        <v>0.92711821140800343</v>
       </c>
       <c r="C60">
-        <v>0.99969703307024149</v>
+        <v>0.072881788591996594</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1998,10 +2532,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.00021093787682313625</v>
+        <v>0.0025541626436530462</v>
       </c>
       <c r="C61">
-        <v>0.99978906212317686</v>
+        <v>0.99744583735634695</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2012,10 +2546,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.00057346632848254142</v>
+        <v>0.087650210610554669</v>
       </c>
       <c r="C62">
-        <v>0.99942653367151746</v>
+        <v>0.91234978938944533</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2026,13 +2560,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.99992624534827546</v>
+        <v>2.5966192029214241e-05</v>
       </c>
       <c r="C63">
-        <v>7.3754651724504522e-05</v>
+        <v>0.99997403380797079</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2040,13 +2574,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.99998974011776887</v>
+        <v>0.0043344989947736723</v>
       </c>
       <c r="C64">
-        <v>1.0259882231143023e-05</v>
+        <v>0.99566550100522633</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2054,13 +2588,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.99999838455692747</v>
+        <v>0.00027111325653683682</v>
       </c>
       <c r="C65">
-        <v>1.6154430725092616e-06</v>
+        <v>0.99972888674346316</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2068,13 +2602,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.0090298792540832729</v>
+        <v>0.99991510877518774</v>
       </c>
       <c r="C66">
-        <v>0.99097012074591673</v>
+        <v>8.4891224812296123e-05</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2082,10 +2616,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.19190057516494385</v>
+        <v>8.2236147775915924e-06</v>
       </c>
       <c r="C67">
-        <v>0.80809942483505615</v>
+        <v>0.99999177638522241</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -2096,13 +2630,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.99999498396482789</v>
+        <v>0.0014553778609784906</v>
       </c>
       <c r="C68">
-        <v>5.0160351721635197e-06</v>
+        <v>0.99854462213902151</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2110,13 +2644,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.99996687949827656</v>
+        <v>0.010097615331383869</v>
       </c>
       <c r="C69">
-        <v>3.312050172345233e-05</v>
+        <v>0.98990238466861613</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2124,10 +2658,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.000312125511624739</v>
+        <v>0.011208997009216293</v>
       </c>
       <c r="C70">
-        <v>0.99968787448837526</v>
+        <v>0.98879100299078371</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -2138,10 +2672,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.14197336802905791</v>
+        <v>0.41030332873028419</v>
       </c>
       <c r="C71">
-        <v>0.8580266319709422</v>
+        <v>0.58969667126971581</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -2152,13 +2686,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.52598503706755351</v>
+        <v>0.0028249203320214189</v>
       </c>
       <c r="C72">
-        <v>0.47401496293244649</v>
+        <v>0.99717507966797858</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2166,13 +2700,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.027298990961099667</v>
+        <v>0.99998815918641581</v>
       </c>
       <c r="C73">
-        <v>0.97270100903890033</v>
+        <v>1.1840813584207864e-05</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2180,10 +2714,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>9.6171373336062516e-06</v>
+        <v>4.7320340383794068e-05</v>
       </c>
       <c r="C74">
-        <v>0.99999038286266639</v>
+        <v>0.99995267965961621</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -2194,10 +2728,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1.6991874296490293e-06</v>
+        <v>0.0018538272965922253</v>
       </c>
       <c r="C75">
-        <v>0.99999830081257035</v>
+        <v>0.99814617270340777</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -2208,13 +2742,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>3.9565514864392526e-08</v>
+        <v>0.9993462810210062</v>
       </c>
       <c r="C76">
-        <v>0.99999996043448514</v>
+        <v>0.00065371897899376156</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2222,13 +2756,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1.6518439104995508e-05</v>
+        <v>0.99849376638324394</v>
       </c>
       <c r="C77">
-        <v>0.999983481560895</v>
+        <v>0.0015062336167560146</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2236,13 +2770,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>9.9040162410135579e-06</v>
+        <v>0.99880631603220527</v>
       </c>
       <c r="C78">
-        <v>0.99999009598375899</v>
+        <v>0.0011936839677947602</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2784,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1.0254422439515132e-05</v>
+        <v>0.99928542628894579</v>
       </c>
       <c r="C79">
-        <v>0.99998974557756048</v>
+        <v>0.00071457371105423169</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2264,13 +2798,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.00043289913844302141</v>
+        <v>0.99918510704755414</v>
       </c>
       <c r="C80">
-        <v>0.99956710086155698</v>
+        <v>0.00081489295244588692</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2278,13 +2812,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>4.4552907925154983e-06</v>
+        <v>0.99789620824428915</v>
       </c>
       <c r="C81">
-        <v>0.99999554470920748</v>
+        <v>0.0021037917557108891</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2292,13 +2826,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.99999326879695161</v>
+        <v>0.11231815242776355</v>
       </c>
       <c r="C82">
-        <v>6.7312030484326222e-06</v>
+        <v>0.88768184757223645</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2306,13 +2840,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>9.0231678532393111e-05</v>
+        <v>0.99998592534364117</v>
       </c>
       <c r="C83">
-        <v>0.99990976832146761</v>
+        <v>1.4074656358835349e-05</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2320,13 +2854,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.99990516571213084</v>
+        <v>0.0028469479255860408</v>
       </c>
       <c r="C84">
-        <v>9.4834287869190799e-05</v>
+        <v>0.99715305207441396</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2334,10 +2868,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.0065904578322146801</v>
+        <v>0.0023891006550367244</v>
       </c>
       <c r="C85">
-        <v>0.99340954216778532</v>
+        <v>0.99761089934496328</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -2348,13 +2882,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.99998895181257463</v>
+        <v>0.00030296692975850803</v>
       </c>
       <c r="C86">
-        <v>1.1048187425352375e-05</v>
+        <v>0.99969703307024149</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2362,13 +2896,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.99999830764025022</v>
+        <v>0.00021093787682313625</v>
       </c>
       <c r="C87">
-        <v>1.692359749777747e-06</v>
+        <v>0.99978906212317686</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2376,10 +2910,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.0033611668537232298</v>
+        <v>0.00057346632848254142</v>
       </c>
       <c r="C88">
-        <v>0.99663883314627677</v>
+        <v>0.99942653367151746</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -2390,13 +2924,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.003776253218457426</v>
+        <v>0.99992624534827546</v>
       </c>
       <c r="C89">
-        <v>0.99622374678154257</v>
+        <v>7.3754651724504522e-05</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2404,10 +2938,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.010234671203127821</v>
+        <v>0.0033097145320647448</v>
       </c>
       <c r="C90">
-        <v>0.98976532879687218</v>
+        <v>0.99669028546793526</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -2418,13 +2952,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.024343276509136924</v>
+        <v>0.99998974011776887</v>
       </c>
       <c r="C91">
-        <v>0.97565672349086308</v>
+        <v>1.0259882231143023e-05</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2432,13 +2966,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.0010083943365566395</v>
+        <v>0.99999838455692747</v>
       </c>
       <c r="C92">
-        <v>0.99899160566344336</v>
+        <v>1.6154430725092616e-06</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2446,10 +2980,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>9.8476237783584608e-05</v>
+        <v>0.0090298792540832729</v>
       </c>
       <c r="C93">
-        <v>0.99990152376221642</v>
+        <v>0.99097012074591673</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -2460,10 +2994,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.00059728107230339056</v>
+        <v>0.0028633352905048648</v>
       </c>
       <c r="C94">
-        <v>0.99940271892769661</v>
+        <v>0.99713666470949514</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -2474,10 +3008,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.0056634355445953632</v>
+        <v>0.19190057516494385</v>
       </c>
       <c r="C95">
-        <v>0.99433656445540464</v>
+        <v>0.80809942483505615</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -2488,13 +3022,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.00055668476997483562</v>
+        <v>0.99999498396482789</v>
       </c>
       <c r="C96">
-        <v>0.99944331523002516</v>
+        <v>5.0160351721635197e-06</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2502,10 +3036,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>5.1005847961471673e-05</v>
+        <v>0.2442898488755797</v>
       </c>
       <c r="C97">
-        <v>0.99994899415203853</v>
+        <v>0.7557101511244203</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -2516,13 +3050,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.00049292479228546515</v>
+        <v>0.99996687949827656</v>
       </c>
       <c r="C98">
-        <v>0.99950707520771453</v>
+        <v>3.312050172345233e-05</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2530,10 +3064,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.00043799534442334753</v>
+        <v>0.000312125511624739</v>
       </c>
       <c r="C99">
-        <v>0.99956200465557665</v>
+        <v>0.99968787448837526</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2544,10 +3078,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.00054236360864157174</v>
+        <v>0.004724553346282967</v>
       </c>
       <c r="C100">
-        <v>0.99945763639135843</v>
+        <v>0.99527544665371703</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -2558,13 +3092,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.72689927759612494</v>
+        <v>0.14197336802905791</v>
       </c>
       <c r="C101">
-        <v>0.27310072240387512</v>
+        <v>0.8580266319709422</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +3106,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.00054227846699672622</v>
+        <v>0.52598503706755351</v>
       </c>
       <c r="C102">
-        <v>0.99945772153300327</v>
+        <v>0.47401496293244649</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2586,13 +3120,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.00011145718949434613</v>
+        <v>0.8558130860391836</v>
       </c>
       <c r="C103">
-        <v>0.99988854281050565</v>
+        <v>0.14418691396081634</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2600,13 +3134,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.0011600993833472684</v>
+        <v>0.60550792324503433</v>
       </c>
       <c r="C104">
-        <v>0.99883990061665273</v>
+        <v>0.39449207675496567</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2614,10 +3148,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>9.2810833015266603e-05</v>
+        <v>9.6171373336062516e-06</v>
       </c>
       <c r="C105">
-        <v>0.99990718916698473</v>
+        <v>0.99999038286266639</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -2628,10 +3162,10 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2.0088463148826285e-05</v>
+        <v>0.0025225670628032937</v>
       </c>
       <c r="C106">
-        <v>0.99997991153685117</v>
+        <v>0.99747743293719671</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -2642,10 +3176,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.002209787615094494</v>
+        <v>1.6991874296490293e-06</v>
       </c>
       <c r="C107">
-        <v>0.99779021238490551</v>
+        <v>0.99999830081257035</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -2656,10 +3190,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.37707504603364478</v>
+        <v>0.0025884214447968734</v>
       </c>
       <c r="C108">
-        <v>0.62292495396635517</v>
+        <v>0.99741157855520313</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -2670,10 +3204,10 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.00035689868851229711</v>
+        <v>3.9565514864392526e-08</v>
       </c>
       <c r="C109">
-        <v>0.9996431013114877</v>
+        <v>0.99999996043448514</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -2684,10 +3218,10 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>4.7790427363469945e-05</v>
+        <v>1.6518439104995508e-05</v>
       </c>
       <c r="C110">
-        <v>0.99995220957263653</v>
+        <v>0.999983481560895</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -2698,10 +3232,10 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>3.5050964433125387e-06</v>
+        <v>9.9040162410135579e-06</v>
       </c>
       <c r="C111">
-        <v>0.99999649490355669</v>
+        <v>0.99999009598375899</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -2712,10 +3246,10 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.36948808959496293</v>
+        <v>1.0254422439515132e-05</v>
       </c>
       <c r="C112">
-        <v>0.63051191040503707</v>
+        <v>0.99998974557756048</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -2726,10 +3260,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.99998937291477674</v>
+        <v>0.89010109130641624</v>
       </c>
       <c r="C113">
-        <v>1.0627085223229883e-05</v>
+        <v>0.10989890869358379</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -2740,10 +3274,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.11888203817352484</v>
+        <v>0.00043289913844302141</v>
       </c>
       <c r="C114">
-        <v>0.88111796182647517</v>
+        <v>0.99956710086155698</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -2754,10 +3288,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7.7593179093060627e-07</v>
+        <v>0.0035105840369012986</v>
       </c>
       <c r="C115">
-        <v>0.99999922406820907</v>
+        <v>0.9964894159630987</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -2768,10 +3302,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.12421564606902169</v>
+        <v>4.4552907925154983e-06</v>
       </c>
       <c r="C116">
-        <v>0.87578435393097831</v>
+        <v>0.99999554470920748</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -2782,13 +3316,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.30239252909231618</v>
+        <v>0.99999326879695161</v>
       </c>
       <c r="C117">
-        <v>0.69760747090768382</v>
+        <v>6.7312030484326222e-06</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2796,13 +3330,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.57500506579948985</v>
+        <v>9.0231678532393111e-05</v>
       </c>
       <c r="C118">
-        <v>0.4249949342005101</v>
+        <v>0.99990976832146761</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -2810,10 +3344,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.00033117125471648912</v>
+        <v>0.00079196347394183686</v>
       </c>
       <c r="C119">
-        <v>0.99966882874528351</v>
+        <v>0.99920803652605816</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -2824,13 +3358,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.99999907576981684</v>
+        <v>0.0026721027827335542</v>
       </c>
       <c r="C120">
-        <v>9.2423018313356237e-07</v>
+        <v>0.99732789721726645</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -2838,10 +3372,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1.1762471901821669e-05</v>
+        <v>0.0023718981980954679</v>
       </c>
       <c r="C121">
-        <v>0.99998823752809818</v>
+        <v>0.99762810180190453</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -2852,10 +3386,10 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.00012799059637980115</v>
+        <v>0.38343865341762073</v>
       </c>
       <c r="C122">
-        <v>0.9998720094036202</v>
+        <v>0.61656134658237927</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -2866,10 +3400,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.00023025633992534988</v>
+        <v>0.00074332064252513597</v>
       </c>
       <c r="C123">
-        <v>0.99976974366007465</v>
+        <v>0.99925667935747486</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -2880,10 +3414,10 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.0001075634734956088</v>
+        <v>0.00017904262967660678</v>
       </c>
       <c r="C124">
-        <v>0.99989243652650439</v>
+        <v>0.99982095737032339</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -2894,10 +3428,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.00066799292060126803</v>
+        <v>0.0065904578322146801</v>
       </c>
       <c r="C125">
-        <v>0.99933200707939873</v>
+        <v>0.99340954216778532</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -2908,10 +3442,10 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>3.9608706754790113e-05</v>
+        <v>0.20627544070674841</v>
       </c>
       <c r="C126">
-        <v>0.99996039129324521</v>
+        <v>0.79372455929325159</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -2922,10 +3456,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.00055800110134074377</v>
+        <v>0.008985500130630264</v>
       </c>
       <c r="C127">
-        <v>0.99944199889865926</v>
+        <v>0.99101449986936974</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -2936,13 +3470,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.99998534901598934</v>
+        <v>0.011175394194400059</v>
       </c>
       <c r="C128">
-        <v>1.4650984010693175e-05</v>
+        <v>0.98882460580559994</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -2950,13 +3484,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.99998946748933681</v>
+        <v>0.0053330105020666929</v>
       </c>
       <c r="C129">
-        <v>1.0532510663236481e-05</v>
+        <v>0.99466698949793331</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -2964,10 +3498,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.98964215672982658</v>
+        <v>0.99998895181257463</v>
       </c>
       <c r="C130">
-        <v>0.010357843270173457</v>
+        <v>1.1048187425352375e-05</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2978,10 +3512,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.99998535472589567</v>
+        <v>0.99999830764025022</v>
       </c>
       <c r="C131">
-        <v>1.4645274104341173e-05</v>
+        <v>1.692359749777747e-06</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2992,10 +3526,10 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.00048839231951969264</v>
+        <v>0.0033611668537232298</v>
       </c>
       <c r="C132">
-        <v>0.99951160768048031</v>
+        <v>0.99663883314627677</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -3006,13 +3540,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.99998463435369245</v>
+        <v>0.01195065864217737</v>
       </c>
       <c r="C133">
-        <v>1.5365646307504015e-05</v>
+        <v>0.98804934135782263</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -3020,13 +3554,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.99994478463531822</v>
+        <v>0.003776253218457426</v>
       </c>
       <c r="C134">
-        <v>5.5215364681800416e-05</v>
+        <v>0.99622374678154257</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -3034,13 +3568,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.00013908141909380056</v>
+        <v>0.99815132250122296</v>
       </c>
       <c r="C135">
-        <v>0.9998609185809062</v>
+        <v>0.0018486774987770461</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3048,13 +3582,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.99999369955227235</v>
+        <v>0.0030901770349607283</v>
       </c>
       <c r="C136">
-        <v>6.3004477276688298e-06</v>
+        <v>0.99690982296503927</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -3062,13 +3596,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.99999436163437627</v>
+        <v>0.010234671203127821</v>
       </c>
       <c r="C137">
-        <v>5.6383656237437902e-06</v>
+        <v>0.98976532879687218</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -3076,13 +3610,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.99999520548895005</v>
+        <v>0.00023102345824921322</v>
       </c>
       <c r="C138">
-        <v>4.7945110499939467e-06</v>
+        <v>0.99976897654175079</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -3090,13 +3624,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.99997159152286585</v>
+        <v>0.00043716170771834761</v>
       </c>
       <c r="C139">
-        <v>2.8408477134190298e-05</v>
+        <v>0.99956283829228165</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -3104,13 +3638,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.57339122146397148</v>
+        <v>0.0010083943365566395</v>
       </c>
       <c r="C140">
-        <v>0.42660877853602852</v>
+        <v>0.99899160566344336</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -3118,10 +3652,10 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.99998658477913815</v>
+        <v>0.7463998366256912</v>
       </c>
       <c r="C141">
-        <v>1.3415220861897643e-05</v>
+        <v>0.2536001633743088</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -3132,10 +3666,10 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.99999434580238411</v>
+        <v>0.99173729994293458</v>
       </c>
       <c r="C142">
-        <v>5.6541976158789664e-06</v>
+        <v>0.0082627000570653659</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -3146,13 +3680,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.99999515548116491</v>
+        <v>9.8476237783584608e-05</v>
       </c>
       <c r="C143">
-        <v>4.8445188350447307e-06</v>
+        <v>0.99990152376221642</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -3160,13 +3694,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.99999500981146117</v>
+        <v>0.00059728107230339056</v>
       </c>
       <c r="C144">
-        <v>4.9901885388504827e-06</v>
+        <v>0.99940271892769661</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -3174,13 +3708,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.99998423536299352</v>
+        <v>0.0056634355445953632</v>
       </c>
       <c r="C145">
-        <v>1.5764637006421468e-05</v>
+        <v>0.99433656445540464</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -3188,10 +3722,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>8.5937240158040495e-05</v>
+        <v>0.00055668476997483562</v>
       </c>
       <c r="C146">
-        <v>0.99991406275984196</v>
+        <v>0.99944331523002516</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -3202,13 +3736,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.99996974386513704</v>
+        <v>5.1005847961471673e-05</v>
       </c>
       <c r="C147">
-        <v>3.025613486301534e-05</v>
+        <v>0.99994899415203853</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -3216,13 +3750,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.99996365113726549</v>
+        <v>0.00049292479228546515</v>
       </c>
       <c r="C148">
-        <v>3.6348862734557349e-05</v>
+        <v>0.99950707520771453</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3230,13 +3764,13 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.99991108071786938</v>
+        <v>0.00043799534442334753</v>
       </c>
       <c r="C149">
-        <v>8.891928213063791e-05</v>
+        <v>0.99956200465557665</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -3244,13 +3778,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.99997927901127703</v>
+        <v>0.00054236360864157174</v>
       </c>
       <c r="C150">
-        <v>2.0720988722941825e-05</v>
+        <v>0.99945763639135843</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -3258,13 +3792,13 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.99994442623889834</v>
+        <v>0.00054227846699672622</v>
       </c>
       <c r="C151">
-        <v>5.5573761101703225e-05</v>
+        <v>0.99945772153300327</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -3272,13 +3806,13 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.999995333476842</v>
+        <v>0.006231054106979439</v>
       </c>
       <c r="C152">
-        <v>4.6665231580576995e-06</v>
+        <v>0.99376894589302056</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -3286,13 +3820,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.99999445252722996</v>
+        <v>0.00011145718949434613</v>
       </c>
       <c r="C153">
-        <v>5.5474727700457778e-06</v>
+        <v>0.99988854281050565</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -3300,13 +3834,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.9999786522240921</v>
+        <v>0.0011600993833472684</v>
       </c>
       <c r="C154">
-        <v>2.1347775907908366e-05</v>
+        <v>0.99883990061665273</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -3314,13 +3848,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.99991527394759672</v>
+        <v>0.0049302565458422265</v>
       </c>
       <c r="C155">
-        <v>8.4726052403297835e-05</v>
+        <v>0.99506974345415777</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -3328,10 +3862,10 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.0016795866963144057</v>
+        <v>0.0013448581870711962</v>
       </c>
       <c r="C156">
-        <v>0.99832041330368559</v>
+        <v>0.9986551418129288</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -3342,10 +3876,10 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.99998555229929575</v>
+        <v>0.61086152969430718</v>
       </c>
       <c r="C157">
-        <v>1.44477007042934e-05</v>
+        <v>0.38913847030569276</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -3356,13 +3890,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.99998545712665599</v>
+        <v>0.0025972840604349123</v>
       </c>
       <c r="C158">
-        <v>1.4542873344033557e-05</v>
+        <v>0.99740271593956509</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -3370,13 +3904,13 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.99998825027121019</v>
+        <v>0.00084932058709075164</v>
       </c>
       <c r="C159">
-        <v>1.1749728789837993e-05</v>
+        <v>0.99915067941290925</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -3384,13 +3918,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.99998721039769811</v>
+        <v>0.0028459968161466125</v>
       </c>
       <c r="C160">
-        <v>1.2789602301837278e-05</v>
+        <v>0.99715400318385339</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -3398,10 +3932,10 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1.6114389822519115e-09</v>
+        <v>9.2810833015266603e-05</v>
       </c>
       <c r="C161">
-        <v>0.99999999838856102</v>
+        <v>0.99990718916698473</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -3412,13 +3946,13 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.99999152614465836</v>
+        <v>0.0011952193129985966</v>
       </c>
       <c r="C162">
-        <v>8.4738553416598607e-06</v>
+        <v>0.9988047806870014</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -3426,10 +3960,10 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.62056092321208511</v>
+        <v>0.9331300320678092</v>
       </c>
       <c r="C163">
-        <v>0.37943907678791483</v>
+        <v>0.066869967932190771</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -3440,10 +3974,10 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.99998913995789096</v>
+        <v>0.61086152969430718</v>
       </c>
       <c r="C164">
-        <v>1.086004210907263e-05</v>
+        <v>0.38913847030569276</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -3454,13 +3988,13 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.9999885009447903</v>
+        <v>2.0088463148826285e-05</v>
       </c>
       <c r="C165">
-        <v>1.1499055209723521e-05</v>
+        <v>0.99997991153685117</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -3468,13 +4002,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.9999964050827268</v>
+        <v>0.002209787615094494</v>
       </c>
       <c r="C166">
-        <v>3.5949172731687213e-06</v>
+        <v>0.99779021238490551</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -3482,13 +4016,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.99999464926637227</v>
+        <v>0.00035689868851229711</v>
       </c>
       <c r="C167">
-        <v>5.3507336276920009e-06</v>
+        <v>0.9996431013114877</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -3496,13 +4030,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.99999699025475997</v>
+        <v>4.7790427363469945e-05</v>
       </c>
       <c r="C168">
-        <v>3.0097452400798815e-06</v>
+        <v>0.99995220957263653</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -3510,10 +4044,10 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.99998076404884506</v>
+        <v>0.73557465566318658</v>
       </c>
       <c r="C169">
-        <v>1.9235951154886581e-05</v>
+        <v>0.26442534433681342</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -3524,10 +4058,10 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.99997685828185778</v>
+        <v>0.99998937291477674</v>
       </c>
       <c r="C170">
-        <v>2.3141718142218843e-05</v>
+        <v>1.0627085223229883e-05</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -3538,13 +4072,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.99999944745851532</v>
+        <v>0.11888203817352484</v>
       </c>
       <c r="C171">
-        <v>5.5254148471011434e-07</v>
+        <v>0.88111796182647517</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -3552,13 +4086,13 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.99999579411306105</v>
+        <v>0.12421564606902169</v>
       </c>
       <c r="C172">
-        <v>4.2058869389345337e-06</v>
+        <v>0.87578435393097831</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -3566,13 +4100,13 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.99694608844219779</v>
+        <v>0.30239252909231618</v>
       </c>
       <c r="C173">
-        <v>0.0030539115578022188</v>
+        <v>0.69760747090768382</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -3580,13 +4114,13 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.99998682324536781</v>
+        <v>0.0067748174398279959</v>
       </c>
       <c r="C174">
-        <v>1.3176754632164878e-05</v>
+        <v>0.993225182560172</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -3594,13 +4128,13 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.98213977772562533</v>
+        <v>0.00033117125471648912</v>
       </c>
       <c r="C175">
-        <v>0.017860222274374688</v>
+        <v>0.99966882874528351</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -3608,10 +4142,10 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.99998757112971104</v>
+        <v>0.70689844044622752</v>
       </c>
       <c r="C176">
-        <v>1.2428870288971787e-05</v>
+        <v>0.29310155955377254</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -3622,10 +4156,10 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.99992035436708993</v>
+        <v>0.99999907576981684</v>
       </c>
       <c r="C177">
-        <v>7.9645632910124931e-05</v>
+        <v>9.2423018313356237e-07</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -3636,10 +4170,10 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.99999579720216591</v>
+        <v>0.95189950528420919</v>
       </c>
       <c r="C178">
-        <v>4.2027978340403884e-06</v>
+        <v>0.048100494715790837</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -3650,13 +4184,13 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.99999456638733619</v>
+        <v>0.0035823368587777349</v>
       </c>
       <c r="C179">
-        <v>5.4336126637556108e-06</v>
+        <v>0.99641766314122227</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -3664,10 +4198,10 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.99949356211205453</v>
+        <v>0.5716594672002826</v>
       </c>
       <c r="C180">
-        <v>0.00050643788794551929</v>
+        <v>0.42834053279971734</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -3678,13 +4212,13 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.99999085644957986</v>
+        <v>0.0024271395975692389</v>
       </c>
       <c r="C181">
-        <v>9.1435504201587333e-06</v>
+        <v>0.99757286040243076</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -3692,13 +4226,13 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.99999175476267754</v>
+        <v>0.00023025633992534988</v>
       </c>
       <c r="C182">
-        <v>8.2452373224519191e-06</v>
+        <v>0.99976974366007465</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -3706,13 +4240,13 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.99989701472549808</v>
+        <v>0.0004768606332815617</v>
       </c>
       <c r="C183">
-        <v>0.00010298527450192014</v>
+        <v>0.99952313936671844</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -3720,13 +4254,13 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.9999673976565483</v>
+        <v>0.00066799292060126803</v>
       </c>
       <c r="C184">
-        <v>3.2602343451732207e-05</v>
+        <v>0.99933200707939873</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -3734,13 +4268,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>0.99998492912223436</v>
+        <v>0.0001607781943643305</v>
       </c>
       <c r="C185">
-        <v>1.5070877765681589e-05</v>
+        <v>0.99983922180563567</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -3748,13 +4282,13 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.99999349105124014</v>
+        <v>0.038196192832895437</v>
       </c>
       <c r="C186">
-        <v>6.5089487599050852e-06</v>
+        <v>0.96180380716710456</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -3762,13 +4296,13 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.99998220177561403</v>
+        <v>3.9608706754790113e-05</v>
       </c>
       <c r="C187">
-        <v>1.7798224385966267e-05</v>
+        <v>0.99996039129324521</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -3776,10 +4310,10 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.999943152920721</v>
+        <v>0.60546358133284306</v>
       </c>
       <c r="C188">
-        <v>5.6847079279049654e-05</v>
+        <v>0.39453641866715694</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -3790,13 +4324,13 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>0.9999810058259273</v>
+        <v>0.00055800110134074377</v>
       </c>
       <c r="C189">
-        <v>1.8994174072696292e-05</v>
+        <v>0.99944199889865926</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -3804,13 +4338,13 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.99999751677047577</v>
+        <v>0.0065335971203530629</v>
       </c>
       <c r="C190">
-        <v>2.4832295242128409e-06</v>
+        <v>0.99346640287964694</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -3818,13 +4352,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.9999977573594262</v>
+        <v>0.0048031781628228298</v>
       </c>
       <c r="C191">
-        <v>2.2426405738151303e-06</v>
+        <v>0.99519682183717717</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -3832,13 +4366,13 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>6.4272089786210351e-05</v>
+        <v>0.99998534901598934</v>
       </c>
       <c r="C192">
-        <v>0.99993572791021379</v>
+        <v>1.4650984010693175e-05</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -3846,10 +4380,10 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0.99998819567243169</v>
+        <v>0.99998946748933681</v>
       </c>
       <c r="C193">
-        <v>1.1804327568288369e-05</v>
+        <v>1.0532510663236481e-05</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -3860,13 +4394,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.99965435463394281</v>
+        <v>0.0072418237704993116</v>
       </c>
       <c r="C194">
-        <v>0.00034564536605716554</v>
+        <v>0.99275817622950069</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -3874,13 +4408,13 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.99965406416115654</v>
+        <v>0.005883199222340707</v>
       </c>
       <c r="C195">
-        <v>0.00034593583884346703</v>
+        <v>0.99411680077765929</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -3888,10 +4422,10 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.99716966477094782</v>
+        <v>0.99998535472589567</v>
       </c>
       <c r="C196">
-        <v>0.0028303352290521594</v>
+        <v>1.4645274104341173e-05</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -3902,10 +4436,10 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.00043722654327082999</v>
+        <v>0.00048839231951969264</v>
       </c>
       <c r="C197">
-        <v>0.99956277345672917</v>
+        <v>0.99951160768048031</v>
       </c>
       <c r="D197">
         <v>2</v>
@@ -3916,13 +4450,13 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.99975867921944483</v>
+        <v>0.0010353988062794528</v>
       </c>
       <c r="C198">
-        <v>0.00024132078055511035</v>
+        <v>0.99896460119372055</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -3930,10 +4464,10 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.99840600918545686</v>
+        <v>0.99998463435369245</v>
       </c>
       <c r="C199">
-        <v>0.0015939908145431905</v>
+        <v>1.5365646307504015e-05</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -3944,10 +4478,10 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.99934347858621619</v>
+        <v>0.99994478463531822</v>
       </c>
       <c r="C200">
-        <v>0.00065652141378382543</v>
+        <v>5.5215364681800416e-05</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -3958,10 +4492,10 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.99652990486251347</v>
+        <v>0.63848648368905825</v>
       </c>
       <c r="C201">
-        <v>0.0034700951374865277</v>
+        <v>0.36151351631094175</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -3972,13 +4506,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.99949076631599898</v>
+        <v>0.00013908141909380056</v>
       </c>
       <c r="C202">
-        <v>0.00050923368400106477</v>
+        <v>0.9998609185809062</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -3986,10 +4520,10 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.99666204849052731</v>
+        <v>0.99999369955227235</v>
       </c>
       <c r="C203">
-        <v>0.003337951509472731</v>
+        <v>6.3004477276688298e-06</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -4000,13 +4534,13 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.9985291863439838</v>
+        <v>0.003287127572043191</v>
       </c>
       <c r="C204">
-        <v>0.0014708136560161701</v>
+        <v>0.99671287242795681</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -4014,10 +4548,10 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.99400312867540364</v>
+        <v>0.99999436163437627</v>
       </c>
       <c r="C205">
-        <v>0.005996871324596394</v>
+        <v>5.6383656237437902e-06</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -4028,10 +4562,10 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.99945368553697433</v>
+        <v>0.99999520548895005</v>
       </c>
       <c r="C206">
-        <v>0.00054631446302566469</v>
+        <v>4.7945110499939467e-06</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -4042,13 +4576,13 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.99706492131697688</v>
+        <v>0.023256698959989719</v>
       </c>
       <c r="C207">
-        <v>0.0029350786830231027</v>
+        <v>0.97674330104001028</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -4056,13 +4590,13 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.9996433675731462</v>
+        <v>0.0031127953764824579</v>
       </c>
       <c r="C208">
-        <v>0.00035663242685375428</v>
+        <v>0.99688720462351754</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -4070,10 +4604,10 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.99928645593897558</v>
+        <v>0.99997159152286585</v>
       </c>
       <c r="C209">
-        <v>0.00071354406102443397</v>
+        <v>2.8408477134190298e-05</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -4084,13 +4618,13 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.99630063311339812</v>
+        <v>0.001252999514992359</v>
       </c>
       <c r="C210">
-        <v>0.003699366886601929</v>
+        <v>0.99874700048500764</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -4098,13 +4632,13 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.99812411395024192</v>
+        <v>0.0044826116321077247</v>
       </c>
       <c r="C211">
-        <v>0.0018758860497580722</v>
+        <v>0.99551738836789228</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -4112,13 +4646,13 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.99960454239806051</v>
+        <v>0.0012370597706888864</v>
       </c>
       <c r="C212">
-        <v>0.00039545760193954166</v>
+        <v>0.99876294022931111</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -4126,10 +4660,10 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.9995170458656657</v>
+        <v>0.99998658477913815</v>
       </c>
       <c r="C213">
-        <v>0.00048295413433432666</v>
+        <v>1.3415220861897643e-05</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -4140,10 +4674,10 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.60398082925747165</v>
+        <v>0.99999434580238411</v>
       </c>
       <c r="C214">
-        <v>0.39601917074252835</v>
+        <v>5.6541976158789664e-06</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -4154,13 +4688,13 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>2.43234938146486e-05</v>
+        <v>0.99999515548116491</v>
       </c>
       <c r="C215">
-        <v>0.99997567650618535</v>
+        <v>4.8445188350447307e-06</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -4168,13 +4702,13 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>0.0007198868075546373</v>
+        <v>0.99999500981146117</v>
       </c>
       <c r="C216">
-        <v>0.99928011319244536</v>
+        <v>4.9901885388504827e-06</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -4182,10 +4716,10 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.97905177928444687</v>
+        <v>0.81048878815226477</v>
       </c>
       <c r="C217">
-        <v>0.020948220715553103</v>
+        <v>0.18951121184773526</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -4196,10 +4730,10 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.98181435028450259</v>
+        <v>0.99998423536299352</v>
       </c>
       <c r="C218">
-        <v>0.018185649715497382</v>
+        <v>1.5764637006421468e-05</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -4210,10 +4744,10 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.24069424579389553</v>
+        <v>8.5937240158040495e-05</v>
       </c>
       <c r="C219">
-        <v>0.75930575420610447</v>
+        <v>0.99991406275984196</v>
       </c>
       <c r="D219">
         <v>2</v>
@@ -4224,13 +4758,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.48441702600674741</v>
+        <v>0.99996974386513704</v>
       </c>
       <c r="C220">
-        <v>0.51558297399325259</v>
+        <v>3.025613486301534e-05</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -4238,13 +4772,13 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.0045348881483403547</v>
+        <v>0.99996365113726549</v>
       </c>
       <c r="C221">
-        <v>0.99546511185165965</v>
+        <v>3.6348862734557349e-05</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -4252,10 +4786,10 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.95402422793377506</v>
+        <v>0.99991108071786938</v>
       </c>
       <c r="C222">
-        <v>0.045975772066224975</v>
+        <v>8.891928213063791e-05</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -4266,13 +4800,13 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.34356391158954058</v>
+        <v>0.99997927901127703</v>
       </c>
       <c r="C223">
-        <v>0.65643608841045942</v>
+        <v>2.0720988722941825e-05</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -4280,13 +4814,13 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.00013875633863025261</v>
+        <v>0.99994442623889834</v>
       </c>
       <c r="C224">
-        <v>0.99986124366136975</v>
+        <v>5.5573761101703225e-05</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -4294,10 +4828,10 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.93222469290291654</v>
+        <v>0.999995333476842</v>
       </c>
       <c r="C225">
-        <v>0.067775307097083501</v>
+        <v>4.6665231580576995e-06</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -4308,13 +4842,13 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.018851296928225847</v>
+        <v>0.99999445252722996</v>
       </c>
       <c r="C226">
-        <v>0.98114870307177415</v>
+        <v>5.5474727700457778e-06</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -4322,10 +4856,10 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.9999879774771343</v>
+        <v>0.9999786522240921</v>
       </c>
       <c r="C227">
-        <v>1.2022522865733184e-05</v>
+        <v>2.1347775907908366e-05</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -4336,13 +4870,13 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.00077173289288223756</v>
+        <v>0.99991527394759672</v>
       </c>
       <c r="C228">
-        <v>0.99922826710711776</v>
+        <v>8.4726052403297835e-05</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -4350,13 +4884,13 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.99997634702482763</v>
+        <v>0.0016795866963144057</v>
       </c>
       <c r="C229">
-        <v>2.3652975172362952e-05</v>
+        <v>0.99832041330368559</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -4364,10 +4898,10 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.99999790335808947</v>
+        <v>0.99998555229929575</v>
       </c>
       <c r="C230">
-        <v>2.0966419105179943e-06</v>
+        <v>1.44477007042934e-05</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -4378,10 +4912,10 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>0.99999051620463475</v>
+        <v>0.99998545712665599</v>
       </c>
       <c r="C231">
-        <v>9.4837953652762299e-06</v>
+        <v>1.4542873344033557e-05</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -4392,10 +4926,10 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.99999546568996833</v>
+        <v>0.99998825027121019</v>
       </c>
       <c r="C232">
-        <v>4.53431003161553e-06</v>
+        <v>1.1749728789837993e-05</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -4406,13 +4940,13 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0.023542135897870131</v>
+        <v>0.99998721039769811</v>
       </c>
       <c r="C233">
-        <v>0.97645786410212987</v>
+        <v>1.2789602301837278e-05</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -4420,10 +4954,10 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>1.4178709958678759e-05</v>
+        <v>1.6114389822519115e-09</v>
       </c>
       <c r="C234">
-        <v>0.99998582129004132</v>
+        <v>0.99999999838856102</v>
       </c>
       <c r="D234">
         <v>2</v>
@@ -4434,13 +4968,13 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>4.1322495159423767e-05</v>
+        <v>0.99999152614465836</v>
       </c>
       <c r="C235">
-        <v>0.99995867750484058</v>
+        <v>8.4738553416598607e-06</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -4448,13 +4982,13 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.00098465643316647533</v>
+        <v>0.62056092321208511</v>
       </c>
       <c r="C236">
-        <v>0.99901534356683352</v>
+        <v>0.37943907678791483</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -4462,13 +4996,13 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>3.3521076253650861e-06</v>
+        <v>0.99998913995789096</v>
       </c>
       <c r="C237">
-        <v>0.99999664789237463</v>
+        <v>1.086004210907263e-05</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -4476,13 +5010,13 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>3.7415706743981758e-07</v>
+        <v>0.9999885009447903</v>
       </c>
       <c r="C238">
-        <v>0.99999962584293256</v>
+        <v>1.1499055209723521e-05</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -4490,13 +5024,13 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0.0012727189822446805</v>
+        <v>0.9999964050827268</v>
       </c>
       <c r="C239">
-        <v>0.99872728101775532</v>
+        <v>3.5949172731687213e-06</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -4504,10 +5038,10 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>2.1939484750377325e-05</v>
+        <v>0.0030420271595928972</v>
       </c>
       <c r="C240">
-        <v>0.99997806051524962</v>
+        <v>0.9969579728404071</v>
       </c>
       <c r="D240">
         <v>2</v>
@@ -4518,10 +5052,10 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.98308073589659184</v>
+        <v>0.99999464926637227</v>
       </c>
       <c r="C241">
-        <v>0.016919264103408216</v>
+        <v>5.3507336276920009e-06</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -4532,13 +5066,13 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.0046644257530235045</v>
+        <v>0.99999699025475997</v>
       </c>
       <c r="C242">
-        <v>0.9953355742469765</v>
+        <v>3.0097452400798815e-06</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -4546,10 +5080,10 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.77450423587156791</v>
+        <v>0.99998076404884506</v>
       </c>
       <c r="C243">
-        <v>0.22549576412843217</v>
+        <v>1.9235951154886581e-05</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -4560,10 +5094,10 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.0034043720778724751</v>
+        <v>0.0096424484882124961</v>
       </c>
       <c r="C244">
-        <v>0.99659562792212752</v>
+        <v>0.9903575515117875</v>
       </c>
       <c r="D244">
         <v>2</v>
@@ -4574,13 +5108,13 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>1.6562970592826076e-06</v>
+        <v>0.99997685828185778</v>
       </c>
       <c r="C245">
-        <v>0.99999834370294072</v>
+        <v>2.3141718142218843e-05</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -4588,13 +5122,13 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.99999430230211883</v>
+        <v>0.027571306237811011</v>
       </c>
       <c r="C246">
-        <v>5.6976978812220157e-06</v>
+        <v>0.97242869376218899</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -4602,13 +5136,13 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0.0013039283647525712</v>
+        <v>0.99999944745851532</v>
       </c>
       <c r="C247">
-        <v>0.99869607163524743</v>
+        <v>5.5254148471011434e-07</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -4616,10 +5150,10 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.00058463597401281486</v>
+        <v>0.013645993347550678</v>
       </c>
       <c r="C248">
-        <v>0.99941536402598719</v>
+        <v>0.98635400665244932</v>
       </c>
       <c r="D248">
         <v>2</v>
@@ -4630,13 +5164,13 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.00010251519919035611</v>
+        <v>0.89621298736690669</v>
       </c>
       <c r="C249">
-        <v>0.99989748480080964</v>
+        <v>0.10378701263309335</v>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -4644,13 +5178,13 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.019379345165027484</v>
+        <v>0.99999579411306105</v>
       </c>
       <c r="C250">
-        <v>0.98062065483497252</v>
+        <v>4.2058869389345337e-06</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -4658,13 +5192,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>0.0032827023627699514</v>
+        <v>0.99998682324536781</v>
       </c>
       <c r="C251">
-        <v>0.99671729763723005</v>
+        <v>1.3176754632164878e-05</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -4672,10 +5206,10 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.99999662723481597</v>
+        <v>0.99998757112971104</v>
       </c>
       <c r="C252">
-        <v>3.3727651839857364e-06</v>
+        <v>1.2428870288971787e-05</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -4686,13 +5220,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>6.6348698358753566e-06</v>
+        <v>0.99992035436708993</v>
       </c>
       <c r="C253">
-        <v>0.99999336513016412</v>
+        <v>7.9645632910124931e-05</v>
       </c>
       <c r="D253">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -4700,10 +5234,10 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0.99845460695628019</v>
+        <v>0.99999579720216591</v>
       </c>
       <c r="C254">
-        <v>0.0015453930437198424</v>
+        <v>4.2027978340403884e-06</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -4714,10 +5248,10 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0.99902353969225366</v>
+        <v>0.99999456638733619</v>
       </c>
       <c r="C255">
-        <v>0.00097646030774628588</v>
+        <v>5.4336126637556108e-06</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -4728,13 +5262,13 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.99919065191243772</v>
+        <v>0.077088596612912674</v>
       </c>
       <c r="C256">
-        <v>0.00080934808756226396</v>
+        <v>0.92291140338708733</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -4742,10 +5276,10 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>0.99965396613658619</v>
+        <v>0.99999085644957986</v>
       </c>
       <c r="C257">
-        <v>0.00034603386341375644</v>
+        <v>9.1435504201587333e-06</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -4756,10 +5290,10 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.99626970227342926</v>
+        <v>0.99999175476267754</v>
       </c>
       <c r="C258">
-        <v>0.0037302977265707641</v>
+        <v>8.2452373224519191e-06</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -4770,10 +5304,10 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.99725109497382736</v>
+        <v>0.99989701472549808</v>
       </c>
       <c r="C259">
-        <v>0.0027489050261726728</v>
+        <v>0.00010298527450192014</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -4784,10 +5318,10 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.99725109497382736</v>
+        <v>0.9999673976565483</v>
       </c>
       <c r="C260">
-        <v>0.0027489050261726728</v>
+        <v>3.2602343451732207e-05</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -4798,10 +5332,10 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>0.99864866382414208</v>
+        <v>0.99998492912223436</v>
       </c>
       <c r="C261">
-        <v>0.0013513361758579099</v>
+        <v>1.5070877765681589e-05</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -4812,10 +5346,10 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0.99725109497382736</v>
+        <v>0.99999349105124014</v>
       </c>
       <c r="C262">
-        <v>0.0027489050261726728</v>
+        <v>6.5089487599050852e-06</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -4826,10 +5360,10 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.99864866382414208</v>
+        <v>0.99998220177561403</v>
       </c>
       <c r="C263">
-        <v>0.0013513361758579099</v>
+        <v>1.7798224385966267e-05</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -4840,10 +5374,10 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.8457766585855917</v>
+        <v>0.999943152920721</v>
       </c>
       <c r="C264">
-        <v>0.15422334141440835</v>
+        <v>5.6847079279049654e-05</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -4854,10 +5388,10 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0.00031687703022431624</v>
+        <v>0.00036989607875281827</v>
       </c>
       <c r="C265">
-        <v>0.99968312296977568</v>
+        <v>0.99963010392124718</v>
       </c>
       <c r="D265">
         <v>2</v>
@@ -4868,13 +5402,13 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.0030122436220151316</v>
+        <v>0.9999810058259273</v>
       </c>
       <c r="C266">
-        <v>0.99698775637798487</v>
+        <v>1.8994174072696292e-05</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -4882,13 +5416,13 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>3.2880890409536789e-05</v>
+        <v>0.99999751677047577</v>
       </c>
       <c r="C267">
-        <v>0.99996711910959046</v>
+        <v>2.4832295242128409e-06</v>
       </c>
       <c r="D267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -4896,13 +5430,13 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>0.0003309128399909822</v>
+        <v>0.9871090925462086</v>
       </c>
       <c r="C268">
-        <v>0.99966908716000902</v>
+        <v>0.012890907453791374</v>
       </c>
       <c r="D268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -4910,13 +5444,13 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0.00036519193473649736</v>
+        <v>0.9999977573594262</v>
       </c>
       <c r="C269">
-        <v>0.9996348080652635</v>
+        <v>2.2426405738151303e-06</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -4924,10 +5458,10 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.002185885883783989</v>
+        <v>0.0024612296621128182</v>
       </c>
       <c r="C270">
-        <v>0.99781411411621601</v>
+        <v>0.99753877033788718</v>
       </c>
       <c r="D270">
         <v>2</v>
@@ -4938,10 +5472,10 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.0016853830391279079</v>
+        <v>0.0040661253615784654</v>
       </c>
       <c r="C271">
-        <v>0.99831461696087209</v>
+        <v>0.99593387463842153</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -4952,10 +5486,10 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.0002636078869909797</v>
+        <v>6.4272089786210351e-05</v>
       </c>
       <c r="C272">
-        <v>0.99973639211300902</v>
+        <v>0.99993572791021379</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -4966,10 +5500,10 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.98367942158315713</v>
+        <v>0.99998819567243169</v>
       </c>
       <c r="C273">
-        <v>0.016320578416842892</v>
+        <v>1.1804327568288369e-05</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -4980,10 +5514,10 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.61774224565413793</v>
+        <v>0.99965435463394281</v>
       </c>
       <c r="C274">
-        <v>0.38225775434586212</v>
+        <v>0.00034564536605716554</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -4994,10 +5528,10 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.99996615024981439</v>
+        <v>0.99965406416115654</v>
       </c>
       <c r="C275">
-        <v>3.3849750185640632e-05</v>
+        <v>0.00034593583884346703</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -5008,13 +5542,13 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0.33918138522917385</v>
+        <v>0.99716966477094782</v>
       </c>
       <c r="C276">
-        <v>0.66081861477082615</v>
+        <v>0.0028303352290521594</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -5022,13 +5556,13 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0.99999999911511339</v>
+        <v>0.00043722654327082999</v>
       </c>
       <c r="C277">
-        <v>8.8488660142540888e-10</v>
+        <v>0.99956277345672917</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -5036,10 +5570,10 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.99999806080139964</v>
+        <v>0.99975867921944483</v>
       </c>
       <c r="C278">
-        <v>1.9391986003797499e-06</v>
+        <v>0.00024132078055511035</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -5050,13 +5584,13 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.17098706577110467</v>
+        <v>0.99840600918545686</v>
       </c>
       <c r="C279">
-        <v>0.82901293422889533</v>
+        <v>0.0015939908145431905</v>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -5064,13 +5598,13 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.999995143971112</v>
+        <v>0.010688677198156693</v>
       </c>
       <c r="C280">
-        <v>4.8560288879605456e-06</v>
+        <v>0.98931132280184331</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -5078,10 +5612,10 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0.99997097524596901</v>
+        <v>0.99934347858621619</v>
       </c>
       <c r="C281">
-        <v>2.9024754031005659e-05</v>
+        <v>0.00065652141378382543</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -5092,13 +5626,13 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.99999168462496224</v>
+        <v>0.0023628880342749792</v>
       </c>
       <c r="C282">
-        <v>8.3153750377720909e-06</v>
+        <v>0.99763711196572502</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -5106,13 +5640,13 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.99998229150533335</v>
+        <v>0.17899566901985434</v>
       </c>
       <c r="C283">
-        <v>1.7708494666657852e-05</v>
+        <v>0.82100433098014569</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -5120,13 +5654,13 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.99999957512011373</v>
+        <v>0.0051586076755295585</v>
       </c>
       <c r="C284">
-        <v>4.2487988627615623e-07</v>
+        <v>0.99484139232447044</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -5134,10 +5668,10 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.99999759081193074</v>
+        <v>0.99652990486251347</v>
       </c>
       <c r="C285">
-        <v>2.4091880692528274e-06</v>
+        <v>0.0034700951374865277</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -5148,10 +5682,10 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.99999599688287177</v>
+        <v>0.99949076631599898</v>
       </c>
       <c r="C286">
-        <v>4.003117128231363e-06</v>
+        <v>0.00050923368400106477</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -5162,10 +5696,10 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.99999573368657912</v>
+        <v>0.99666204849052731</v>
       </c>
       <c r="C287">
-        <v>4.2663134208934437e-06</v>
+        <v>0.003337951509472731</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -5176,10 +5710,10 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.99999290863103585</v>
+        <v>0.9985291863439838</v>
       </c>
       <c r="C288">
-        <v>7.0913689641340871e-06</v>
+        <v>0.0014708136560161701</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -5190,10 +5724,10 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>0.99997109597672007</v>
+        <v>0.99400312867540364</v>
       </c>
       <c r="C289">
-        <v>2.8904023279973838e-05</v>
+        <v>0.005996871324596394</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -5204,10 +5738,10 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>0.99999761477146198</v>
+        <v>0.99945368553697433</v>
       </c>
       <c r="C290">
-        <v>2.3852285380447788e-06</v>
+        <v>0.00054631446302566469</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -5218,10 +5752,10 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.99999618822396186</v>
+        <v>0.99706492131697688</v>
       </c>
       <c r="C291">
-        <v>3.811776038106626e-06</v>
+        <v>0.0029350786830231027</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -5232,10 +5766,10 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0.99999311866075291</v>
+        <v>0.9996433675731462</v>
       </c>
       <c r="C292">
-        <v>6.8813392471207067e-06</v>
+        <v>0.00035663242685375428</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -5246,13 +5780,13 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0.9999806236763823</v>
+        <v>0.0053621382131655571</v>
       </c>
       <c r="C293">
-        <v>1.9376323617716777e-05</v>
+        <v>0.99463786178683444</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -5260,10 +5794,10 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>0.99999672238558013</v>
+        <v>0.99928645593897558</v>
       </c>
       <c r="C294">
-        <v>3.277614419878109e-06</v>
+        <v>0.00071354406102443397</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -5274,13 +5808,13 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0.99997966325434029</v>
+        <v>0.0087306382068169652</v>
       </c>
       <c r="C295">
-        <v>2.0336745659662454e-05</v>
+        <v>0.99126936179318303</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -5288,10 +5822,10 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>0.99997132278123979</v>
+        <v>0.99630063311339812</v>
       </c>
       <c r="C296">
-        <v>2.8677218760257688e-05</v>
+        <v>0.003699366886601929</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -5302,13 +5836,13 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.99998491620818741</v>
+        <v>0.012957395872197353</v>
       </c>
       <c r="C297">
-        <v>1.5083791812625488e-05</v>
+        <v>0.98704260412780265</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298">
@@ -5316,10 +5850,10 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.99999298432810158</v>
+        <v>0.99812411395024192</v>
       </c>
       <c r="C298">
-        <v>7.0156718984725037e-06</v>
+        <v>0.0018758860497580722</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -5330,13 +5864,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>0.9994829139007706</v>
+        <v>0.0014578968331386832</v>
       </c>
       <c r="C299">
-        <v>0.00051708609922935503</v>
+        <v>0.99854210316686132</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -5344,10 +5878,10 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0.99999901275513992</v>
+        <v>0.99960454239806051</v>
       </c>
       <c r="C300">
-        <v>9.8724486005412026e-07</v>
+        <v>0.00039545760193954166</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -5358,13 +5892,13 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0.0091976188084249566</v>
+        <v>0.9995170458656657</v>
       </c>
       <c r="C301">
-        <v>0.99080238119157504</v>
+        <v>0.00048295413433432666</v>
       </c>
       <c r="D301">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -5372,10 +5906,10 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>1.2814270844430098e-07</v>
+        <v>0.0016760054673892189</v>
       </c>
       <c r="C302">
-        <v>0.99999987185729156</v>
+        <v>0.99832399453261078</v>
       </c>
       <c r="D302">
         <v>2</v>
@@ -5386,13 +5920,13 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>0.99997225082603303</v>
+        <v>0.016927677916495076</v>
       </c>
       <c r="C303">
-        <v>2.7749173966993309e-05</v>
+        <v>0.98307232208350492</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -5400,13 +5934,13 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>0.99999602298105794</v>
+        <v>0.022766251359888301</v>
       </c>
       <c r="C304">
-        <v>3.9770189420777641e-06</v>
+        <v>0.9772337486401117</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -5414,13 +5948,13 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.999992294356286</v>
+        <v>2.43234938146486e-05</v>
       </c>
       <c r="C305">
-        <v>7.7056437140166556e-06</v>
+        <v>0.99997567650618535</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -5428,10 +5962,10 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>0.040587319245895981</v>
+        <v>0.0007198868075546373</v>
       </c>
       <c r="C306">
-        <v>0.95941268075410402</v>
+        <v>0.99928011319244536</v>
       </c>
       <c r="D306">
         <v>2</v>
@@ -5442,10 +5976,10 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>0.99998006769440884</v>
+        <v>0.63522589202244983</v>
       </c>
       <c r="C307">
-        <v>1.9932305591192665e-05</v>
+        <v>0.36477410797755022</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -5456,13 +5990,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>0.99999739665881415</v>
+        <v>0.014761423711037615</v>
       </c>
       <c r="C308">
-        <v>2.6033411857981527e-06</v>
+        <v>0.98523857628896239</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -5470,13 +6004,13 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.99986650313376779</v>
+        <v>0.0018149131105923422</v>
       </c>
       <c r="C309">
-        <v>0.00013349686623221542</v>
+        <v>0.99818508688940766</v>
       </c>
       <c r="D309">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -5484,10 +6018,10 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.99999285802284366</v>
+        <v>0.98071801117021118</v>
       </c>
       <c r="C310">
-        <v>7.1419771563588439e-06</v>
+        <v>0.019281988829788876</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -5498,13 +6032,13 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.99998997333606343</v>
+        <v>0.00013055749153956242</v>
       </c>
       <c r="C311">
-        <v>1.0026663936593794e-05</v>
+        <v>0.99986944250846044</v>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -5512,10 +6046,10 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.99998072982950281</v>
+        <v>0.99570953654518024</v>
       </c>
       <c r="C312">
-        <v>1.9270170497206021e-05</v>
+        <v>0.00429046345481977</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -5526,10 +6060,10 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.99986374386474375</v>
+        <v>0.97911001374398632</v>
       </c>
       <c r="C313">
-        <v>0.0001362561352561967</v>
+        <v>0.020889986256013637</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -5540,13 +6074,13 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.99999935859040068</v>
+        <v>0.37299927764565632</v>
       </c>
       <c r="C314">
-        <v>6.4140959930665187e-07</v>
+        <v>0.62700072235434368</v>
       </c>
       <c r="D314">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -5554,10 +6088,10 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>0.99995644520143301</v>
+        <v>0.91690442075952205</v>
       </c>
       <c r="C315">
-        <v>4.3554798566982801e-05</v>
+        <v>0.083095579240477904</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -5568,13 +6102,13 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>0.9999684626124572</v>
+        <v>0.054433465407299653</v>
       </c>
       <c r="C316">
-        <v>3.1537387542790556e-05</v>
+        <v>0.94556653459270035</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -5582,13 +6116,13 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>0.99966805427361694</v>
+        <v>0.045769656487118282</v>
       </c>
       <c r="C317">
-        <v>0.00033194572638304133</v>
+        <v>0.95423034351288183</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -5596,13 +6130,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>0.99999995193370894</v>
+        <v>0.24069424579389553</v>
       </c>
       <c r="C318">
-        <v>4.8066291046144831e-08</v>
+        <v>0.75930575420610447</v>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -5610,13 +6144,13 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>0.99999533953261044</v>
+        <v>0.48441702600674741</v>
       </c>
       <c r="C319">
-        <v>4.6604673895408804e-06</v>
+        <v>0.51558297399325259</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -5624,13 +6158,13 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>0.99999346004559608</v>
+        <v>0.0083905060619952065</v>
       </c>
       <c r="C320">
-        <v>6.5399544038630427e-06</v>
+        <v>0.99160949393800479</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -5638,13 +6172,13 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>0.7119962999395737</v>
+        <v>0.0072987744727828208</v>
       </c>
       <c r="C321">
-        <v>0.28800370006042625</v>
+        <v>0.99270122552721718</v>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -5652,13 +6186,13 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>0.9999887242509351</v>
+        <v>0.0045348881483403547</v>
       </c>
       <c r="C322">
-        <v>1.1275749064940154e-05</v>
+        <v>0.99546511185165965</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -5666,13 +6200,13 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>0.43181101601558514</v>
+        <v>0.95763335094465996</v>
       </c>
       <c r="C323">
-        <v>0.56818898398441486</v>
+        <v>0.04236664905534003</v>
       </c>
       <c r="D323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -5680,13 +6214,13 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>0.98218459656748858</v>
+        <v>0.0070377113975282901</v>
       </c>
       <c r="C324">
-        <v>0.017815403432511472</v>
+        <v>0.99296228860247171</v>
       </c>
       <c r="D324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -5694,13 +6228,13 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>0.004870180869212315</v>
+        <v>0.95402422793377506</v>
       </c>
       <c r="C325">
-        <v>0.99512981913078769</v>
+        <v>0.045975772066224975</v>
       </c>
       <c r="D325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -5708,10 +6242,10 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>0.00028047030537858841</v>
+        <v>0.34356391158954058</v>
       </c>
       <c r="C326">
-        <v>0.99971952969462141</v>
+        <v>0.65643608841045942</v>
       </c>
       <c r="D326">
         <v>2</v>
@@ -5722,10 +6256,10 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>0.99999932286440385</v>
+        <v>0.85310188945708143</v>
       </c>
       <c r="C327">
-        <v>6.7713559612181117e-07</v>
+        <v>0.1468981105429186</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -5736,10 +6270,10 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.030216653051028053</v>
+        <v>0.016503172675766842</v>
       </c>
       <c r="C328">
-        <v>0.96978334694897195</v>
+        <v>0.98349682732423316</v>
       </c>
       <c r="D328">
         <v>2</v>
@@ -5750,13 +6284,13 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>0.99993667693741983</v>
+        <v>8.5223948318335907e-05</v>
       </c>
       <c r="C329">
-        <v>6.3323062580222488e-05</v>
+        <v>0.99991477605168166</v>
       </c>
       <c r="D329">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -5764,10 +6298,10 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>1.4941513359900682e-08</v>
+        <v>0.00013875633863025261</v>
       </c>
       <c r="C330">
-        <v>0.99999998505848664</v>
+        <v>0.99986124366136975</v>
       </c>
       <c r="D330">
         <v>2</v>
@@ -5778,10 +6312,10 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.30734758181778032</v>
+        <v>0.018851296928225847</v>
       </c>
       <c r="C331">
-        <v>0.69265241818221968</v>
+        <v>0.98114870307177415</v>
       </c>
       <c r="D331">
         <v>2</v>
@@ -5792,10 +6326,10 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>0.99999722242427913</v>
+        <v>0.9999879774771343</v>
       </c>
       <c r="C332">
-        <v>2.7775757209074551e-06</v>
+        <v>1.2022522865733184e-05</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -5806,10 +6340,10 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>0.00019117978372706901</v>
+        <v>0.00077173289288223756</v>
       </c>
       <c r="C333">
-        <v>0.99980882021627293</v>
+        <v>0.99922826710711776</v>
       </c>
       <c r="D333">
         <v>2</v>
@@ -5820,13 +6354,13 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>0.016121779285663274</v>
+        <v>0.99997634702482763</v>
       </c>
       <c r="C334">
-        <v>0.98387822071433673</v>
+        <v>2.3652975172362952e-05</v>
       </c>
       <c r="D334">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -5834,10 +6368,10 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>0.99999578407907186</v>
+        <v>0.99999790335808947</v>
       </c>
       <c r="C335">
-        <v>4.2159209281110107e-06</v>
+        <v>2.0966419105179943e-06</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -5848,10 +6382,10 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>1.1018807661522524e-05</v>
+        <v>0.0061648444889609291</v>
       </c>
       <c r="C336">
-        <v>0.99998898119233848</v>
+        <v>0.99383515551103907</v>
       </c>
       <c r="D336">
         <v>2</v>
@@ -5862,10 +6396,10 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.99999863345994333</v>
+        <v>0.99999051620463475</v>
       </c>
       <c r="C337">
-        <v>1.3665400567054048e-06</v>
+        <v>9.4837953652762299e-06</v>
       </c>
       <c r="D337">
         <v>1</v>
@@ -5876,13 +6410,13 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>0.9999888997079166</v>
+        <v>0.37054968455661103</v>
       </c>
       <c r="C338">
-        <v>1.1100292083427661e-05</v>
+        <v>0.62945031544338903</v>
       </c>
       <c r="D338">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -5890,13 +6424,13 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>0.24118519609460654</v>
+        <v>0.99999546568996833</v>
       </c>
       <c r="C339">
-        <v>0.75881480390539346</v>
+        <v>4.53431003161553e-06</v>
       </c>
       <c r="D339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -5904,10 +6438,10 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>0.0052961088533131084</v>
+        <v>0.029863086620459001</v>
       </c>
       <c r="C340">
-        <v>0.99470389114668689</v>
+        <v>0.970136913379541</v>
       </c>
       <c r="D340">
         <v>2</v>
@@ -5918,13 +6452,13 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>0.99999949071022654</v>
+        <v>0.00036779329525427062</v>
       </c>
       <c r="C341">
-        <v>5.0928977341110691e-07</v>
+        <v>0.99963220670474573</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -5932,10 +6466,10 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>0.0044601757198499126</v>
+        <v>0.00055026396566693059</v>
       </c>
       <c r="C342">
-        <v>0.99553982428015009</v>
+        <v>0.99944973603433307</v>
       </c>
       <c r="D342">
         <v>2</v>
@@ -5946,13 +6480,13 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>0.99934375192211478</v>
+        <v>0.00082062564793405901</v>
       </c>
       <c r="C343">
-        <v>0.00065624807788523137</v>
+        <v>0.99917937435206594</v>
       </c>
       <c r="D343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -5960,13 +6494,13 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>0.99978140159973627</v>
+        <v>0.023542135897870131</v>
       </c>
       <c r="C344">
-        <v>0.00021859840026367664</v>
+        <v>0.97645786410212987</v>
       </c>
       <c r="D344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -5974,13 +6508,13 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>0.99953067686395281</v>
+        <v>0.001385528530778557</v>
       </c>
       <c r="C345">
-        <v>0.00046932313604717001</v>
+        <v>0.99861447146922144</v>
       </c>
       <c r="D345">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -5988,13 +6522,13 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>0.99985504063928399</v>
+        <v>0.0021943074837310617</v>
       </c>
       <c r="C346">
-        <v>0.0001449593607160606</v>
+        <v>0.99780569251626894</v>
       </c>
       <c r="D346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -6002,13 +6536,13 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>0.99998357081369538</v>
+        <v>1.4178709958678759e-05</v>
       </c>
       <c r="C347">
-        <v>1.6429186304573499e-05</v>
+        <v>0.99998582129004132</v>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -6016,10 +6550,10 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>0.99998357081369538</v>
+        <v>0.8821432001548285</v>
       </c>
       <c r="C348">
-        <v>1.6429186304573499e-05</v>
+        <v>0.11785679984517146</v>
       </c>
       <c r="D348">
         <v>1</v>
@@ -6030,13 +6564,13 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>0.99851024002429123</v>
+        <v>0.0043603697083426374</v>
       </c>
       <c r="C349">
-        <v>0.001489759975708785</v>
+        <v>0.99563963029165736</v>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -6044,13 +6578,13 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>0.99929160467874867</v>
+        <v>4.1322495159423767e-05</v>
       </c>
       <c r="C350">
-        <v>0.0007083953212513774</v>
+        <v>0.99995867750484058</v>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -6058,13 +6592,13 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>0.99998214625562887</v>
+        <v>0.10603473783948525</v>
       </c>
       <c r="C351">
-        <v>1.7853744371090256e-05</v>
+        <v>0.89396526216051475</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -6072,13 +6606,13 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>0.99997557584920471</v>
+        <v>0.00098465643316647533</v>
       </c>
       <c r="C352">
-        <v>2.4424150795314839e-05</v>
+        <v>0.99901534356683352</v>
       </c>
       <c r="D352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -6086,13 +6620,13 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>0.99848086370438849</v>
+        <v>3.7415706743981758e-07</v>
       </c>
       <c r="C353">
-        <v>0.0015191362956115167</v>
+        <v>0.99999962584293256</v>
       </c>
       <c r="D353">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -6100,13 +6634,13 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>0.99949964175936468</v>
+        <v>0.0012727189822446805</v>
       </c>
       <c r="C354">
-        <v>0.00050035824063528623</v>
+        <v>0.99872728101775532</v>
       </c>
       <c r="D354">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -6114,10 +6648,10 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>1.4477787957378752e-06</v>
+        <v>2.1939484750377325e-05</v>
       </c>
       <c r="C355">
-        <v>0.99999855222120426</v>
+        <v>0.99997806051524962</v>
       </c>
       <c r="D355">
         <v>2</v>
@@ -6128,13 +6662,13 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>0.99999693300687775</v>
+        <v>0.0009305725473891524</v>
       </c>
       <c r="C356">
-        <v>3.0669931223002506e-06</v>
+        <v>0.99906942745261085</v>
       </c>
       <c r="D356">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -6142,10 +6676,10 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>6.0116031566748163e-05</v>
+        <v>0.0022221524013609217</v>
       </c>
       <c r="C357">
-        <v>0.99993988396843325</v>
+        <v>0.99777784759863908</v>
       </c>
       <c r="D357">
         <v>2</v>
@@ -6156,13 +6690,2505 @@
         <v>357</v>
       </c>
       <c r="B358">
+        <v>0.93417275029581803</v>
+      </c>
+      <c r="C358">
+        <v>0.065827249704181925</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>0.0046644257530235045</v>
+      </c>
+      <c r="C359">
+        <v>0.9953355742469765</v>
+      </c>
+      <c r="D359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>0.85728142172787369</v>
+      </c>
+      <c r="C360">
+        <v>0.14271857827212631</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>0.77450423587156791</v>
+      </c>
+      <c r="C361">
+        <v>0.22549576412843217</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>0.0012440351536696648</v>
+      </c>
+      <c r="C362">
+        <v>0.99875596484633034</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>0.0034043720778724751</v>
+      </c>
+      <c r="C363">
+        <v>0.99659562792212752</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>1.6562970592826076e-06</v>
+      </c>
+      <c r="C364">
+        <v>0.99999834370294072</v>
+      </c>
+      <c r="D364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>0.92547303542616255</v>
+      </c>
+      <c r="C365">
+        <v>0.074526964573837479</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>0.99999430230211883</v>
+      </c>
+      <c r="C366">
+        <v>5.6976978812220157e-06</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>0.0013039283647525712</v>
+      </c>
+      <c r="C367">
+        <v>0.99869607163524743</v>
+      </c>
+      <c r="D367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>0.00058463597401281486</v>
+      </c>
+      <c r="C368">
+        <v>0.99941536402598719</v>
+      </c>
+      <c r="D368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>0.00010251519919035611</v>
+      </c>
+      <c r="C369">
+        <v>0.99989748480080964</v>
+      </c>
+      <c r="D369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>0.096007519315827738</v>
+      </c>
+      <c r="C370">
+        <v>0.90399248068417226</v>
+      </c>
+      <c r="D370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>0.028066501872164529</v>
+      </c>
+      <c r="C371">
+        <v>0.97193349812783547</v>
+      </c>
+      <c r="D371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>0.0025510410198910094</v>
+      </c>
+      <c r="C372">
+        <v>0.99744895898010899</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>0.91830161138206035</v>
+      </c>
+      <c r="C373">
+        <v>0.08169838861793971</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>0.00052374250589937166</v>
+      </c>
+      <c r="C374">
+        <v>0.99947625749410063</v>
+      </c>
+      <c r="D374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>0.00073262859468103958</v>
+      </c>
+      <c r="C375">
+        <v>0.99926737140531896</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>0.019379345165027484</v>
+      </c>
+      <c r="C376">
+        <v>0.98062065483497252</v>
+      </c>
+      <c r="D376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>0.0003968370476338246</v>
+      </c>
+      <c r="C377">
+        <v>0.99960316295236618</v>
+      </c>
+      <c r="D377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>0.99999662723481597</v>
+      </c>
+      <c r="C378">
+        <v>3.3727651839857364e-06</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>6.6348698358753566e-06</v>
+      </c>
+      <c r="C379">
+        <v>0.99999336513016412</v>
+      </c>
+      <c r="D379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>0.0070904912806648568</v>
+      </c>
+      <c r="C380">
+        <v>0.99290950871933514</v>
+      </c>
+      <c r="D380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>0.99845460695628019</v>
+      </c>
+      <c r="C381">
+        <v>0.0015453930437198424</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>0.99902353969225366</v>
+      </c>
+      <c r="C382">
+        <v>0.00097646030774628588</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>0.062139492409599706</v>
+      </c>
+      <c r="C383">
+        <v>0.93786050759040029</v>
+      </c>
+      <c r="D383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>0.99919065191243772</v>
+      </c>
+      <c r="C384">
+        <v>0.00080934808756226396</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>0.99965396613658619</v>
+      </c>
+      <c r="C385">
+        <v>0.00034603386341375644</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>0.42723999866570517</v>
+      </c>
+      <c r="C386">
+        <v>0.57276000133429483</v>
+      </c>
+      <c r="D386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>0.99626970227342926</v>
+      </c>
+      <c r="C387">
+        <v>0.0037302977265707641</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>0.99725109497382736</v>
+      </c>
+      <c r="C388">
+        <v>0.0027489050261726728</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>0.99725109497382736</v>
+      </c>
+      <c r="C389">
+        <v>0.0027489050261726728</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>0.99864866382414208</v>
+      </c>
+      <c r="C390">
+        <v>0.0013513361758579099</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>0.99725109497382736</v>
+      </c>
+      <c r="C391">
+        <v>0.0027489050261726728</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>0.99864866382414208</v>
+      </c>
+      <c r="C392">
+        <v>0.0013513361758579099</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>0.00031687703022431624</v>
+      </c>
+      <c r="C393">
+        <v>0.99968312296977568</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>0.00036519193473649736</v>
+      </c>
+      <c r="C394">
+        <v>0.9996348080652635</v>
+      </c>
+      <c r="D394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>0.002185885883783989</v>
+      </c>
+      <c r="C395">
+        <v>0.99781411411621601</v>
+      </c>
+      <c r="D395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>0.61774224565413793</v>
+      </c>
+      <c r="C396">
+        <v>0.38225775434586212</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>0.99996615024981439</v>
+      </c>
+      <c r="C397">
+        <v>3.3849750185640632e-05</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>0.33918138522917385</v>
+      </c>
+      <c r="C398">
+        <v>0.66081861477082615</v>
+      </c>
+      <c r="D398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>0.038196192832895437</v>
+      </c>
+      <c r="C399">
+        <v>0.96180380716710456</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>0.17098706577110467</v>
+      </c>
+      <c r="C400">
+        <v>0.82901293422889533</v>
+      </c>
+      <c r="D400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>0.0017026789457035285</v>
+      </c>
+      <c r="C401">
+        <v>0.99829732105429647</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>0.999995143971112</v>
+      </c>
+      <c r="C402">
+        <v>4.8560288879605456e-06</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>0.99997097524596901</v>
+      </c>
+      <c r="C403">
+        <v>2.9024754031005659e-05</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>0.99999168462496224</v>
+      </c>
+      <c r="C404">
+        <v>8.3153750377720909e-06</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>0.99998229150533335</v>
+      </c>
+      <c r="C405">
+        <v>1.7708494666657852e-05</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>0.99999957512011373</v>
+      </c>
+      <c r="C406">
+        <v>4.2487988627615623e-07</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>0.99999759081193074</v>
+      </c>
+      <c r="C407">
+        <v>2.4091880692528274e-06</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>0.99999599688287177</v>
+      </c>
+      <c r="C408">
+        <v>4.003117128231363e-06</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>0.99999573368657912</v>
+      </c>
+      <c r="C409">
+        <v>4.2663134208934437e-06</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>0.99999290863103585</v>
+      </c>
+      <c r="C410">
+        <v>7.0913689641340871e-06</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>0.99997109597672007</v>
+      </c>
+      <c r="C411">
+        <v>2.8904023279973838e-05</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>0.99999761477146198</v>
+      </c>
+      <c r="C412">
+        <v>2.3852285380447788e-06</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>0.99999618822396186</v>
+      </c>
+      <c r="C413">
+        <v>3.811776038106626e-06</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>0.99999311866075291</v>
+      </c>
+      <c r="C414">
+        <v>6.8813392471207067e-06</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>0.9999806236763823</v>
+      </c>
+      <c r="C415">
+        <v>1.9376323617716777e-05</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>0.99999672238558013</v>
+      </c>
+      <c r="C416">
+        <v>3.277614419878109e-06</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>0.99997966325434029</v>
+      </c>
+      <c r="C417">
+        <v>2.0336745659662454e-05</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>0.99997132278123979</v>
+      </c>
+      <c r="C418">
+        <v>2.8677218760257688e-05</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>0.99998491620818741</v>
+      </c>
+      <c r="C419">
+        <v>1.5083791812625488e-05</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>0.99999298432810158</v>
+      </c>
+      <c r="C420">
+        <v>7.0156718984725037e-06</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>0.9994829139007706</v>
+      </c>
+      <c r="C421">
+        <v>0.00051708609922935503</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>0.99999901275513992</v>
+      </c>
+      <c r="C422">
+        <v>9.8724486005412026e-07</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>0.0091976188084249566</v>
+      </c>
+      <c r="C423">
+        <v>0.99080238119157504</v>
+      </c>
+      <c r="D423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>1.2814270844430098e-07</v>
+      </c>
+      <c r="C424">
+        <v>0.99999987185729156</v>
+      </c>
+      <c r="D424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>0.99997225082603303</v>
+      </c>
+      <c r="C425">
+        <v>2.7749173966993309e-05</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>0.99999602298105794</v>
+      </c>
+      <c r="C426">
+        <v>3.9770189420777641e-06</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>0.999992294356286</v>
+      </c>
+      <c r="C427">
+        <v>7.7056437140166556e-06</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>0.0082249815110957414</v>
+      </c>
+      <c r="C428">
+        <v>0.99177501848890426</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>0.040587319245895981</v>
+      </c>
+      <c r="C429">
+        <v>0.95941268075410402</v>
+      </c>
+      <c r="D429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>0.99998006769440884</v>
+      </c>
+      <c r="C430">
+        <v>1.9932305591192665e-05</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>0.99999739665881415</v>
+      </c>
+      <c r="C431">
+        <v>2.6033411857981527e-06</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>0.99986650313376779</v>
+      </c>
+      <c r="C432">
+        <v>0.00013349686623221542</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>0.99999285802284366</v>
+      </c>
+      <c r="C433">
+        <v>7.1419771563588439e-06</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>0.99998997333606343</v>
+      </c>
+      <c r="C434">
+        <v>1.0026663936593794e-05</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>0.99998072982950281</v>
+      </c>
+      <c r="C435">
+        <v>1.9270170497206021e-05</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>0.99986374386474375</v>
+      </c>
+      <c r="C436">
+        <v>0.0001362561352561967</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>0.99999935859040068</v>
+      </c>
+      <c r="C437">
+        <v>6.4140959930665187e-07</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>0.99995644520143301</v>
+      </c>
+      <c r="C438">
+        <v>4.3554798566982801e-05</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>0.9999684626124572</v>
+      </c>
+      <c r="C439">
+        <v>3.1537387542790556e-05</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>0.051832184909997414</v>
+      </c>
+      <c r="C440">
+        <v>0.9481678150900027</v>
+      </c>
+      <c r="D440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>0.0008065784120959707</v>
+      </c>
+      <c r="C441">
+        <v>0.99919342158790403</v>
+      </c>
+      <c r="D441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>0.31396808900213191</v>
+      </c>
+      <c r="C442">
+        <v>0.68603191099786809</v>
+      </c>
+      <c r="D442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>0.003393381580377719</v>
+      </c>
+      <c r="C443">
+        <v>0.99660661841962228</v>
+      </c>
+      <c r="D443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>0.0093659511136874318</v>
+      </c>
+      <c r="C444">
+        <v>0.99063404888631257</v>
+      </c>
+      <c r="D444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>0.006345627787037178</v>
+      </c>
+      <c r="C445">
+        <v>0.99365437221296282</v>
+      </c>
+      <c r="D445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>0.68636462837772327</v>
+      </c>
+      <c r="C446">
+        <v>0.31363537162227673</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>0.99999533953261044</v>
+      </c>
+      <c r="C447">
+        <v>4.6604673895408804e-06</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>0.99999346004559608</v>
+      </c>
+      <c r="C448">
+        <v>6.5399544038630427e-06</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>0.00075722119801724397</v>
+      </c>
+      <c r="C449">
+        <v>0.99924277880198276</v>
+      </c>
+      <c r="D449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>0.002362974235335491</v>
+      </c>
+      <c r="C450">
+        <v>0.99763702576466451</v>
+      </c>
+      <c r="D450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>0.9999887242509351</v>
+      </c>
+      <c r="C451">
+        <v>1.1275749064940154e-05</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>0.00073326243524418633</v>
+      </c>
+      <c r="C452">
+        <v>0.99926673756475581</v>
+      </c>
+      <c r="D452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>0.43181101601558514</v>
+      </c>
+      <c r="C453">
+        <v>0.56818898398441486</v>
+      </c>
+      <c r="D453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>0.018135096517720162</v>
+      </c>
+      <c r="C454">
+        <v>0.98186490348227984</v>
+      </c>
+      <c r="D454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>0.0013297088931173429</v>
+      </c>
+      <c r="C455">
+        <v>0.99867029110688266</v>
+      </c>
+      <c r="D455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>0.015663636716542917</v>
+      </c>
+      <c r="C456">
+        <v>0.98433636328345708</v>
+      </c>
+      <c r="D456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>0.01581379597400423</v>
+      </c>
+      <c r="C457">
+        <v>0.98418620402599577</v>
+      </c>
+      <c r="D457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>0.011035910799655824</v>
+      </c>
+      <c r="C458">
+        <v>0.98896408920034418</v>
+      </c>
+      <c r="D458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>0.01581379597400423</v>
+      </c>
+      <c r="C459">
+        <v>0.98418620402599577</v>
+      </c>
+      <c r="D459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>0.0057745213832319786</v>
+      </c>
+      <c r="C460">
+        <v>0.99422547861676802</v>
+      </c>
+      <c r="D460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>0.0016338098830944725</v>
+      </c>
+      <c r="C461">
+        <v>0.99836619011690553</v>
+      </c>
+      <c r="D461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>0.01023872230444145</v>
+      </c>
+      <c r="C462">
+        <v>0.98976127769555855</v>
+      </c>
+      <c r="D462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>0.00028047030537858841</v>
+      </c>
+      <c r="C463">
+        <v>0.99971952969462141</v>
+      </c>
+      <c r="D463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>0.32639282407449532</v>
+      </c>
+      <c r="C464">
+        <v>0.67360717592550468</v>
+      </c>
+      <c r="D464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>0.17284311245680817</v>
+      </c>
+      <c r="C465">
+        <v>0.82715688754319183</v>
+      </c>
+      <c r="D465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>0.0089172423294844316</v>
+      </c>
+      <c r="C466">
+        <v>0.99108275767051557</v>
+      </c>
+      <c r="D466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>0.016241144519026585</v>
+      </c>
+      <c r="C467">
+        <v>0.98375885548097342</v>
+      </c>
+      <c r="D467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>0.00022369854933967925</v>
+      </c>
+      <c r="C468">
+        <v>0.99977630145066032</v>
+      </c>
+      <c r="D468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>0.0077721295832650084</v>
+      </c>
+      <c r="C469">
+        <v>0.99222787041673499</v>
+      </c>
+      <c r="D469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>0.0044237559871767029</v>
+      </c>
+      <c r="C470">
+        <v>0.9955762440128233</v>
+      </c>
+      <c r="D470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>0.81631703536168065</v>
+      </c>
+      <c r="C471">
+        <v>0.18368296463831946</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>0.0018872664163548381</v>
+      </c>
+      <c r="C472">
+        <v>0.99811273358364516</v>
+      </c>
+      <c r="D472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>0.99999932286440385</v>
+      </c>
+      <c r="C473">
+        <v>6.7713559612181117e-07</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>0.030216653051028053</v>
+      </c>
+      <c r="C474">
+        <v>0.96978334694897195</v>
+      </c>
+      <c r="D474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>0.87685232382030598</v>
+      </c>
+      <c r="C475">
+        <v>0.12314767617969406</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>0.015361696671458813</v>
+      </c>
+      <c r="C476">
+        <v>0.98463830332854119</v>
+      </c>
+      <c r="D476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>0.93238693912557591</v>
+      </c>
+      <c r="C477">
+        <v>0.067613060874424091</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>0.99993667693741983</v>
+      </c>
+      <c r="C478">
+        <v>6.3323062580222488e-05</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>1.4941513359900682e-08</v>
+      </c>
+      <c r="C479">
+        <v>0.99999998505848664</v>
+      </c>
+      <c r="D479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>0.00073402068061001469</v>
+      </c>
+      <c r="C480">
+        <v>0.99926597931938999</v>
+      </c>
+      <c r="D480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>0.003436652381205163</v>
+      </c>
+      <c r="C481">
+        <v>0.99656334761879484</v>
+      </c>
+      <c r="D481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>0.00053052135007669587</v>
+      </c>
+      <c r="C482">
+        <v>0.9994694786499233</v>
+      </c>
+      <c r="D482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>0.041839912249158839</v>
+      </c>
+      <c r="C483">
+        <v>0.95816008775084116</v>
+      </c>
+      <c r="D483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>0.7596395886815529</v>
+      </c>
+      <c r="C484">
+        <v>0.24036041131844713</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>0.014770491098275773</v>
+      </c>
+      <c r="C485">
+        <v>0.98522950890172423</v>
+      </c>
+      <c r="D485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>0.93250147316035936</v>
+      </c>
+      <c r="C486">
+        <v>0.067498526839640555</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>0.0040086798971658011</v>
+      </c>
+      <c r="C487">
+        <v>0.9959913201028342</v>
+      </c>
+      <c r="D487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>0.99760812649345065</v>
+      </c>
+      <c r="C488">
+        <v>0.002391873506549375</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B489">
+        <v>0.30734758181778032</v>
+      </c>
+      <c r="C489">
+        <v>0.69265241818221968</v>
+      </c>
+      <c r="D489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>0.99674046795662719</v>
+      </c>
+      <c r="C490">
+        <v>0.0032595320433727601</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>0.99999722242427913</v>
+      </c>
+      <c r="C491">
+        <v>2.7775757209074551e-06</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>0.00019117978372706901</v>
+      </c>
+      <c r="C492">
+        <v>0.99980882021627293</v>
+      </c>
+      <c r="D492">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>0.12942049109939768</v>
+      </c>
+      <c r="C493">
+        <v>0.87057950890060232</v>
+      </c>
+      <c r="D493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>0.037707460005902971</v>
+      </c>
+      <c r="C494">
+        <v>0.96229253999409703</v>
+      </c>
+      <c r="D494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>0.41999448407076201</v>
+      </c>
+      <c r="C495">
+        <v>0.58000551592923799</v>
+      </c>
+      <c r="D495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>0.0015452769571794314</v>
+      </c>
+      <c r="C496">
+        <v>0.99845472304282057</v>
+      </c>
+      <c r="D496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>0.99999578407907186</v>
+      </c>
+      <c r="C497">
+        <v>4.2159209281110107e-06</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>0.99721486492491673</v>
+      </c>
+      <c r="C498">
+        <v>0.0027851350750832653</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>0.062633684326638517</v>
+      </c>
+      <c r="C499">
+        <v>0.93736631567336148</v>
+      </c>
+      <c r="D499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B500">
+        <v>0.94341865758355414</v>
+      </c>
+      <c r="C500">
+        <v>0.056581342416445836</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>0.67202604611269456</v>
+      </c>
+      <c r="C501">
+        <v>0.32797395388730538</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B502">
+        <v>0.97634387839589409</v>
+      </c>
+      <c r="C502">
+        <v>0.023656121604105889</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B503">
+        <v>1.1018807661522524e-05</v>
+      </c>
+      <c r="C503">
+        <v>0.99998898119233848</v>
+      </c>
+      <c r="D503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B504">
+        <v>0.94309915346927475</v>
+      </c>
+      <c r="C504">
+        <v>0.056900846530725212</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B505">
+        <v>0.020944929102761356</v>
+      </c>
+      <c r="C505">
+        <v>0.97905507089723864</v>
+      </c>
+      <c r="D505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B506">
+        <v>0.99999863345994333</v>
+      </c>
+      <c r="C506">
+        <v>1.3665400567054048e-06</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B507">
+        <v>0.98138374378864413</v>
+      </c>
+      <c r="C507">
+        <v>0.018616256211355868</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B508">
+        <v>0.49496614780977</v>
+      </c>
+      <c r="C508">
+        <v>0.50503385219023</v>
+      </c>
+      <c r="D508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B509">
+        <v>0.90709738803395334</v>
+      </c>
+      <c r="C509">
+        <v>0.092902611966046711</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B510">
+        <v>0.9999888997079166</v>
+      </c>
+      <c r="C510">
+        <v>1.1100292083427661e-05</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B511">
+        <v>0.9162544836189821</v>
+      </c>
+      <c r="C511">
+        <v>0.083745516381017931</v>
+      </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B512">
+        <v>0.77322561749230856</v>
+      </c>
+      <c r="C512">
+        <v>0.2267743825076913</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B513">
+        <v>0.24118519609460654</v>
+      </c>
+      <c r="C513">
+        <v>0.75881480390539346</v>
+      </c>
+      <c r="D513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B514">
+        <v>0.0052961088533131084</v>
+      </c>
+      <c r="C514">
+        <v>0.99470389114668689</v>
+      </c>
+      <c r="D514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B515">
+        <v>0.99999949071022654</v>
+      </c>
+      <c r="C515">
+        <v>5.0928977341110691e-07</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B516">
+        <v>0.014607083764152096</v>
+      </c>
+      <c r="C516">
+        <v>0.9853929162358479</v>
+      </c>
+      <c r="D516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B517">
+        <v>0.0044601757198499126</v>
+      </c>
+      <c r="C517">
+        <v>0.99553982428015009</v>
+      </c>
+      <c r="D517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B518">
+        <v>0.0024262543734097086</v>
+      </c>
+      <c r="C518">
+        <v>0.99757374562659029</v>
+      </c>
+      <c r="D518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B519">
+        <v>0.99934375192211478</v>
+      </c>
+      <c r="C519">
+        <v>0.00065624807788523137</v>
+      </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B520">
+        <v>0.99978140159973627</v>
+      </c>
+      <c r="C520">
+        <v>0.00021859840026367664</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B521">
+        <v>0.99953067686395281</v>
+      </c>
+      <c r="C521">
+        <v>0.00046932313604717001</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B522">
+        <v>0.99985504063928399</v>
+      </c>
+      <c r="C522">
+        <v>0.0001449593607160606</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B523">
+        <v>0.99998357081369538</v>
+      </c>
+      <c r="C523">
+        <v>1.6429186304573499e-05</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B524">
+        <v>0.99998357081369538</v>
+      </c>
+      <c r="C524">
+        <v>1.6429186304573499e-05</v>
+      </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B525">
+        <v>0.99851024002429123</v>
+      </c>
+      <c r="C525">
+        <v>0.001489759975708785</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B526">
+        <v>0.99929160467874867</v>
+      </c>
+      <c r="C526">
+        <v>0.0007083953212513774</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B527">
+        <v>0.99998214625562887</v>
+      </c>
+      <c r="C527">
+        <v>1.7853744371090256e-05</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B528">
+        <v>0.014662643787149765</v>
+      </c>
+      <c r="C528">
+        <v>0.98533735621285023</v>
+      </c>
+      <c r="D528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B529">
+        <v>0.99997557584920471</v>
+      </c>
+      <c r="C529">
+        <v>2.4424150795314839e-05</v>
+      </c>
+      <c r="D529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B530">
+        <v>0.99848086370438849</v>
+      </c>
+      <c r="C530">
+        <v>0.0015191362956115167</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B531">
+        <v>0.99949964175936468</v>
+      </c>
+      <c r="C531">
+        <v>0.00050035824063528623</v>
+      </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B532">
+        <v>1.4477787957378752e-06</v>
+      </c>
+      <c r="C532">
+        <v>0.99999855222120426</v>
+      </c>
+      <c r="D532">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B533">
+        <v>0.99999693300687775</v>
+      </c>
+      <c r="C533">
+        <v>3.0669931223002506e-06</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B534">
+        <v>6.0116031566748163e-05</v>
+      </c>
+      <c r="C534">
+        <v>0.99993988396843325</v>
+      </c>
+      <c r="D534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B535">
         <v>0.99850217868859603</v>
       </c>
-      <c r="C358">
+      <c r="C535">
         <v>0.0014978213114040188</v>
       </c>
-      <c r="D358">
-        <v>1</v>
+      <c r="D535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B536">
+        <v>0.39659454321378562</v>
+      </c>
+      <c r="C536">
+        <v>0.60340545678621438</v>
+      </c>
+      <c r="D536">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
